--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanhachez/Documents/ongoing - DHN_expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="115_{FF50BDCB-5647-44AE-A376-5FC91899235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02879FB9-7A4A-4216-A814-74FEF31E32F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E18FA24-02D6-344A-99AF-A8C6A582823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-1230" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-67260" yWindow="-5320" windowWidth="26640" windowHeight="19800" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>parameter</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>multiplier</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>Pit</t>
   </si>
 </sst>
 </file>
@@ -211,9 +217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +257,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -357,7 +363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,9 +517,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -529,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -537,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -545,7 +554,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -553,7 +562,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -561,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -569,7 +578,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -577,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -585,7 +594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -602,26 +611,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0E9847-B35B-42F7-B80E-8901083A9132}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -656,7 +665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -691,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -726,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -761,7 +770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -803,97 +812,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B9AB8C-FEEB-44DF-BE7F-AAE13A717E9E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>25000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
+      <c r="C2">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
+      <c r="D2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
+      <c r="E2">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
+      <c r="F2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
+      <c r="G2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
+      <c r="H2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
+      <c r="I2">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
+      <c r="J2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
@@ -908,9 +913,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -918,7 +926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -926,7 +934,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -934,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -953,9 +961,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -963,7 +974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -971,7 +982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -979,7 +990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -987,7 +998,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1006,9 +1017,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1016,7 +1030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1024,7 +1038,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1032,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="115_{FF50BDCB-5647-44AE-A376-5FC91899235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02879FB9-7A4A-4216-A814-74FEF31E32F8}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="115_{53519F56-D266-4DDB-A09E-5BEE0E3A4E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CAABFB-4B5A-4EF6-A661-5C0AB962B22B}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-1230" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="8" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Technologies" sheetId="2" r:id="rId2"/>
     <sheet name="Storage" sheetId="3" r:id="rId3"/>
     <sheet name="EnergyCarriers" sheetId="4" r:id="rId4"/>
-    <sheet name="CarbonPrice" sheetId="5" r:id="rId5"/>
-    <sheet name="DemandMultipliers" sheetId="6" r:id="rId6"/>
+    <sheet name="EnergyPriceMap" sheetId="7" r:id="rId5"/>
+    <sheet name="EnergyTransitions" sheetId="11" r:id="rId6"/>
+    <sheet name="CarbonTrajectories" sheetId="8" r:id="rId7"/>
+    <sheet name="CarbonProbabilities" sheetId="9" r:id="rId8"/>
+    <sheet name="DemandUncertainty" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>parameter</t>
   </si>
@@ -146,16 +149,73 @@
     <t>emission_factor</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>carbon_price</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
     <t>multiplier</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>price_eur_per_mwh</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>year_1</t>
+  </si>
+  <si>
+    <t>year_2</t>
+  </si>
+  <si>
+    <t>year_3</t>
+  </si>
+  <si>
+    <t>year_4</t>
+  </si>
+  <si>
+    <t>Current policy</t>
+  </si>
+  <si>
+    <t>Net-zero path</t>
+  </si>
+  <si>
+    <t>Delayed action</t>
+  </si>
+  <si>
+    <t>probability</t>
+  </si>
+  <si>
+    <t>High demand</t>
+  </si>
+  <si>
+    <t>Normal demand</t>
+  </si>
+  <si>
+    <t>Low demand</t>
+  </si>
+  <si>
+    <t>from_state</t>
+  </si>
+  <si>
+    <t>to_high</t>
+  </si>
+  <si>
+    <t>to_medium</t>
+  </si>
+  <si>
+    <t>to_low</t>
   </si>
 </sst>
 </file>
@@ -208,6 +268,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,14 +570,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F431239C-541D-4780-8B7B-758EB84B554D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2A70EA-52DE-43AD-A0A6-A58F656F6BEE}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -529,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -537,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -545,7 +609,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -553,7 +617,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -561,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -569,7 +633,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -577,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -585,7 +649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -599,29 +663,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0E9847-B35B-42F7-B80E-8901083A9132}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47282D1-CE61-4278-8A4B-8DEEFBAE28F5}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -656,7 +720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -691,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -726,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -761,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -802,14 +866,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B9AB8C-FEEB-44DF-BE7F-AAE13A717E9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0324B1-5D73-40C3-B628-4B9E146F6C98}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -825,7 +889,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -833,7 +897,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -841,7 +905,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -849,7 +913,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -857,7 +921,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -865,7 +929,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -873,7 +937,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -881,7 +945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -889,7 +953,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -903,14 +967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45E1C8F-A0B8-43F8-85A1-21F7CD6ECE72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4680E620-F5AC-4D90-8688-8AE3D22FABE0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -918,7 +982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -926,7 +990,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -934,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -948,51 +1012,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B5B2E4-DD1B-4962-BA3B-C7014639F374}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55258AB8-8758-4B0F-BA8E-D50152FF3172}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>350</v>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1001,43 +1076,291 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D76BF9-DFB1-4EDA-A401-40C366C7F1C4}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CB1B84-9FE7-416F-A1FC-22498B37FCAA}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>0.6</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.6</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2233F3F3-0EAC-42D2-9813-A7061778A36D}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>125</v>
+      </c>
+      <c r="F2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>180</v>
+      </c>
+      <c r="F4">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22130C6F-9902-4C95-8117-86926CFFD273}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A46333-8340-41CF-8EDC-5E05A26577EC}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.9</v>
+      </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanhachez/Documents/ongoing - DHN_expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E18FA24-02D6-344A-99AF-A8C6A582823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A5AEC-B063-E54C-9423-1B50F033F882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67260" yWindow="-5320" windowWidth="26640" windowHeight="19800" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="3220" yWindow="760" windowWidth="26640" windowHeight="17680" activeTab="3" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>parameter</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>max_discharge_rate</t>
-  </si>
-  <si>
-    <t>lifetime</t>
-  </si>
-  <si>
-    <t>max_capacity</t>
   </si>
   <si>
     <t>carrier</t>
@@ -612,7 +606,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B9AB8C-FEEB-44DF-BE7F-AAE13A717E9E}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,7 +828,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -858,10 +852,10 @@
         <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -869,7 +863,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>25000</v>
@@ -911,7 +905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45E1C8F-A0B8-43F8-85A1-21F7CD6ECE72}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -920,10 +916,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -968,10 +964,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,10 +1020,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="498" documentId="11_C06996C0FE411BF93D0577E108B2978BCD23EF9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BED2CC54-199E-4AA1-BEC6-FABFBEF61C72}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="11_C06996C0FE411BF93D0577E108B2978BCD23EF9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E03A74F-185D-442F-9E53-ABE94CA8220D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={98EB3A2A-984A-4989-8252-77BD7D530C82}</author>
+    <author>tc={2B9DC85E-C269-467E-AAB3-45AA130E6B73}</author>
+    <author>tc={B7D506CE-A6BB-470A-875D-9FA84DE22FB9}</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{98EB3A2A-984A-4989-8252-77BD7D530C82}">
@@ -55,12 +57,28 @@
     EUR values converted to SEK by multiplying by 10,92</t>
       </text>
     </comment>
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{2B9DC85E-C269-467E-AAB3-45AA130E6B73}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Increase</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="2" shapeId="0" xr:uid="{B7D506CE-A6BB-470A-875D-9FA84DE22FB9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Late increase</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>multiplier</t>
   </si>
@@ -303,6 +321,9 @@
   </si>
   <si>
     <t>bio_waste</t>
+  </si>
+  <si>
+    <t>use_stochastic_demand</t>
   </si>
 </sst>
 </file>
@@ -343,12 +364,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -371,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -406,6 +433,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,6 +753,12 @@
   <threadedComment ref="C2" dT="2025-10-24T14:22:12.17" personId="{225DE312-2597-4284-8E1A-4635D93CA1E7}" id="{98EB3A2A-984A-4989-8252-77BD7D530C82}">
     <text>EUR values converted to SEK by multiplying by 10,92</text>
   </threadedComment>
+  <threadedComment ref="B3" dT="2025-10-28T09:22:43.82" personId="{225DE312-2597-4284-8E1A-4635D93CA1E7}" id="{2B9DC85E-C269-467E-AAB3-45AA130E6B73}">
+    <text>Increase</text>
+  </threadedComment>
+  <threadedComment ref="B4" dT="2025-10-28T09:22:51.08" personId="{225DE312-2597-4284-8E1A-4635D93CA1E7}" id="{B7D506CE-A6BB-470A-875D-9FA84DE22FB9}">
+    <text>Late increase</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -726,15 +767,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -819,6 +860,14 @@
       </c>
       <c r="C8" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +883,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,8 +948,8 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,7 +957,7 @@
     <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.90625" style="4" bestFit="1" customWidth="1"/>
@@ -1265,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1300,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1475,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1491,12 +1540,13 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="23.81640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.90625" style="12"/>
   </cols>
   <sheetData>
@@ -1745,7 +1795,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1753,10 +1803,10 @@
     <col min="1" max="1" width="5.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1769,7 +1819,7 @@
       <c r="C1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -1792,9 +1842,9 @@
       <c r="C2">
         <v>2023</v>
       </c>
-      <c r="D2">
-        <f>D3*1.15</f>
-        <v>-1449</v>
+      <c r="D2" s="17">
+        <f>D3*0.75</f>
+        <v>-945</v>
       </c>
       <c r="E2">
         <f>E3*1.3</f>
@@ -1805,8 +1855,8 @@
         <v>304.2</v>
       </c>
       <c r="G2">
-        <f>G3*1.15</f>
-        <v>740.59999999999991</v>
+        <f>G3*1.3</f>
+        <v>837.2</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1819,7 +1869,7 @@
       <c r="C3">
         <v>2023</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="18">
         <v>-1260</v>
       </c>
       <c r="E3">
@@ -1842,9 +1892,9 @@
       <c r="C4">
         <v>2023</v>
       </c>
-      <c r="D4">
-        <f>D3*0.85</f>
-        <v>-1071</v>
+      <c r="D4" s="17">
+        <f>D3*1.15</f>
+        <v>-1449</v>
       </c>
       <c r="E4">
         <f>E3*0.7</f>
@@ -1855,8 +1905,8 @@
         <v>163.79999999999998</v>
       </c>
       <c r="G4">
-        <f>G3*0.85</f>
-        <v>547.4</v>
+        <f>G3*0.7</f>
+        <v>450.79999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1869,9 +1919,9 @@
       <c r="C5">
         <v>2030</v>
       </c>
-      <c r="D5">
-        <f>D6*1.15</f>
-        <v>-1838.85</v>
+      <c r="D5" s="17">
+        <f>D6*0.75</f>
+        <v>-1199.25</v>
       </c>
       <c r="E5">
         <f>E6*1.3</f>
@@ -1882,8 +1932,8 @@
         <v>341.90000000000003</v>
       </c>
       <c r="G5">
-        <f>G6*1.15</f>
-        <v>832.59999999999991</v>
+        <f>G6*1.3</f>
+        <v>941.2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1896,7 +1946,7 @@
       <c r="C6">
         <v>2030</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="18">
         <v>-1599</v>
       </c>
       <c r="E6">
@@ -1919,9 +1969,9 @@
       <c r="C7">
         <v>2030</v>
       </c>
-      <c r="D7">
-        <f>D6*0.85</f>
-        <v>-1359.1499999999999</v>
+      <c r="D7" s="17">
+        <f>D6*1.15</f>
+        <v>-1838.85</v>
       </c>
       <c r="E7">
         <f>E6*0.7</f>
@@ -1932,8 +1982,8 @@
         <v>184.1</v>
       </c>
       <c r="G7">
-        <f>G6*0.85</f>
-        <v>615.4</v>
+        <f>G6*0.7</f>
+        <v>506.79999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1946,9 +1996,9 @@
       <c r="C8">
         <v>2040</v>
       </c>
-      <c r="D8">
-        <f>D9*1.15</f>
-        <v>-2285.0499999999997</v>
+      <c r="D8" s="17">
+        <f>D9*0.75</f>
+        <v>-1490.25</v>
       </c>
       <c r="E8">
         <f>E9*1.3</f>
@@ -1959,8 +2009,8 @@
         <v>403</v>
       </c>
       <c r="G8">
-        <f>G9*1.15</f>
-        <v>985.55</v>
+        <f>G9*1.3</f>
+        <v>1114.1000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1973,7 +2023,7 @@
       <c r="C9">
         <v>2040</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="18">
         <v>-1987</v>
       </c>
       <c r="E9">
@@ -1996,9 +2046,9 @@
       <c r="C10">
         <v>2040</v>
       </c>
-      <c r="D10">
-        <f>D9*0.85</f>
-        <v>-1688.95</v>
+      <c r="D10" s="17">
+        <f>D9*1.15</f>
+        <v>-2285.0499999999997</v>
       </c>
       <c r="E10">
         <f>E9*0.7</f>
@@ -2009,8 +2059,8 @@
         <v>217</v>
       </c>
       <c r="G10">
-        <f>G9*0.85</f>
-        <v>728.44999999999993</v>
+        <f>G9*0.7</f>
+        <v>599.9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2023,9 +2073,9 @@
       <c r="C11">
         <v>2050</v>
       </c>
-      <c r="D11">
-        <f>D12*1.15</f>
-        <v>-2619.6999999999998</v>
+      <c r="D11" s="17">
+        <f>D12*0.75</f>
+        <v>-1708.5</v>
       </c>
       <c r="E11">
         <f>E12*1.3</f>
@@ -2036,8 +2086,8 @@
         <v>477.1</v>
       </c>
       <c r="G11">
-        <f>G12*1.15</f>
-        <v>1167.25</v>
+        <f>G12*1.3</f>
+        <v>1319.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2050,7 +2100,7 @@
       <c r="C12">
         <v>2050</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="18">
         <v>-2278</v>
       </c>
       <c r="E12">
@@ -2073,9 +2123,9 @@
       <c r="C13">
         <v>2050</v>
       </c>
-      <c r="D13">
-        <f>D12*0.85</f>
-        <v>-1936.3</v>
+      <c r="D13" s="17">
+        <f>D12*1.15</f>
+        <v>-2619.6999999999998</v>
       </c>
       <c r="E13">
         <f>E12*0.7</f>
@@ -2086,8 +2136,8 @@
         <v>256.89999999999998</v>
       </c>
       <c r="G13">
-        <f>G12*0.85</f>
-        <v>862.75</v>
+        <f>G12*0.7</f>
+        <v>710.5</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2153,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2181,7 +2231,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2285,7 +2335,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="115_{9A63A160-9015-40FE-AA27-35B1EC3B8FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{674B3A12-EEB7-4E27-9080-CE7C6F0D2D84}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="115_{9A63A160-9015-40FE-AA27-35B1EC3B8FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7735B41-8BF4-455E-BBA8-58B267DA211C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="2" activeTab="7" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="9" activeTab="10" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="EnergyPriceMap" sheetId="7" r:id="rId7"/>
     <sheet name="EnergyTransitions" sheetId="8" r:id="rId8"/>
     <sheet name="DemandUncertainty" sheetId="9" r:id="rId9"/>
-    <sheet name="CarbonTrajectories" sheetId="10" r:id="rId10"/>
+    <sheet name="CarbonTrajectory" sheetId="10" r:id="rId10"/>
     <sheet name="TemperatureScenarios" sheetId="11" r:id="rId11"/>
     <sheet name="TemperatureProbabilities" sheetId="12" r:id="rId12"/>
     <sheet name="ExistingCapacitySchedule" sheetId="13" r:id="rId13"/>
@@ -704,9 +704,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -728,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -739,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -747,7 +747,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -758,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -777,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -788,7 +788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -805,11 +805,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B137F6-4E69-4E75-88FC-D51AC0D90317}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -823,7 +825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1500</v>
       </c>
@@ -846,16 +848,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE9921C-EC1D-48DB-9CE9-5FEAD03EEB74}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -866,7 +868,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -877,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -899,9 +901,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -912,7 +914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -923,7 +925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -945,9 +947,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -964,7 +966,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -998,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1049,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1083,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1145,9 +1147,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.81120000000000003</v>
       </c>
@@ -1186,9 +1188,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -1202,7 +1204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7657579.3700000001</v>
       </c>
@@ -1227,14 +1229,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1304,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1444,7 +1446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1630,9 +1632,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1683,7 +1685,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1700,7 +1702,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1734,7 +1736,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1768,7 +1770,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1819,7 +1821,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1847,9 +1849,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1865,7 +1867,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1948,9 +1950,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1958,7 +1960,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>0.34735402116783071</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1974,12 +1976,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1987,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2006,9 +2008,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2016,7 +2018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -2040,7 +2042,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -2056,7 +2058,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -2064,7 +2066,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -2072,7 +2074,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -2128,7 +2130,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -2160,7 +2162,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -2168,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -2176,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -2192,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -2200,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -2224,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -2253,18 +2255,18 @@
       <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2310,7 +2312,7 @@
         <v>837.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>450.79999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2379,7 +2381,7 @@
         <v>941.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -2402,7 +2404,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2425,7 +2427,7 @@
         <v>506.79999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>1114.1000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -2471,7 +2473,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>599.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2517,7 +2519,7 @@
         <v>1319.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2572,13 +2574,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D179FE01-73A4-4F8D-AE11-2B1C5DCF85D7}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -2645,9 +2647,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -2658,7 +2660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.05</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2680,7 +2682,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.95</v>
       </c>

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="115_{9A63A160-9015-40FE-AA27-35B1EC3B8FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7735B41-8BF4-455E-BBA8-58B267DA211C}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="115_{34DC912F-EE65-44D9-9C9B-3B52B854FD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E6DB9A-53C1-435D-BBD5-A56E02019541}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="9" activeTab="10" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="6" activeTab="8" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Emission_Factor_for_electricity" sheetId="6" r:id="rId6"/>
     <sheet name="EnergyPriceMap" sheetId="7" r:id="rId7"/>
     <sheet name="EnergyTransitions" sheetId="8" r:id="rId8"/>
-    <sheet name="DemandUncertainty" sheetId="9" r:id="rId9"/>
-    <sheet name="CarbonTrajectory" sheetId="10" r:id="rId10"/>
-    <sheet name="TemperatureScenarios" sheetId="11" r:id="rId11"/>
-    <sheet name="TemperatureProbabilities" sheetId="12" r:id="rId12"/>
-    <sheet name="ExistingCapacitySchedule" sheetId="13" r:id="rId13"/>
-    <sheet name="WasteChpEfficiency" sheetId="14" r:id="rId14"/>
-    <sheet name="WasteAvailability" sheetId="15" r:id="rId15"/>
+    <sheet name="CarbonTrajectory" sheetId="10" r:id="rId9"/>
+    <sheet name="TemperatureScenarios" sheetId="11" r:id="rId10"/>
+    <sheet name="TemperatureProbabilities" sheetId="12" r:id="rId11"/>
+    <sheet name="ExistingCapacitySchedule" sheetId="13" r:id="rId12"/>
+    <sheet name="WasteChpEfficiency" sheetId="14" r:id="rId13"/>
+    <sheet name="WasteAvailability" sheetId="15" r:id="rId14"/>
+    <sheet name="ExtremeEvents" sheetId="16" r:id="rId15"/>
+    <sheet name="ExtremeEventControl" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
   <si>
     <t>parameter</t>
   </si>
@@ -263,21 +264,9 @@
     <t>to_low</t>
   </si>
   <si>
-    <t>multiplier</t>
-  </si>
-  <si>
     <t>probability</t>
   </si>
   <si>
-    <t>High demand</t>
-  </si>
-  <si>
-    <t>Normal demand</t>
-  </si>
-  <si>
-    <t>Low demand</t>
-  </si>
-  <si>
     <t>year_1[SEK/tCO2]</t>
   </si>
   <si>
@@ -312,6 +301,66 @@
   </si>
   <si>
     <t>year_4</t>
+  </si>
+  <si>
+    <t>elec_price_multiplier</t>
+  </si>
+  <si>
+    <t>dc_availability</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>demand_surge</t>
+  </si>
+  <si>
+    <t>price_spike</t>
+  </si>
+  <si>
+    <t>dc_outage</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal - baseline conditions  </t>
+  </si>
+  <si>
+    <t>Climate stress - more severe winters (20% higher average demand)</t>
+  </si>
+  <si>
+    <t>Energy crisis  -  high electricity prices (2x average)</t>
+  </si>
+  <si>
+    <t>Data center supply distruption  - complete unavailability</t>
+  </si>
+  <si>
+    <t>enable_extreme_events</t>
+  </si>
+  <si>
+    <t>apply_to_year</t>
+  </si>
+  <si>
+    <t>Master switch to enable/disable extreme event modeling</t>
+  </si>
+  <si>
+    <t>Which model year to apply extreme events</t>
+  </si>
+  <si>
+    <t>demand_multiplier</t>
   </si>
 </sst>
 </file>
@@ -699,14 +748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA425C3-2FB2-49C0-BE7B-8EE127A81638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9590D77B-7759-431A-924A-4D4114C0C169}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -728,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -739,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -747,7 +796,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -758,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -766,7 +815,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -777,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -788,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -802,41 +851,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B137F6-4E69-4E75-88FC-D51AC0D90317}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916A681A-3E86-4F06-B784-91FE6167CDD3}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1500</v>
-      </c>
-      <c r="B2">
-        <v>1900</v>
-      </c>
-      <c r="C2">
-        <v>2300</v>
-      </c>
-      <c r="D2">
-        <v>2730</v>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -845,49 +902,44 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE9921C-EC1D-48DB-9CE9-5FEAD03EEB74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22286C85-1058-4683-BC8D-55516C17C647}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.69921875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -896,44 +948,198 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D936589-D958-4516-8E81-3A62176292EB}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4145D0F8-96F7-4B36-9ED7-5DAF3228EE46}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
       <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
         <v>85</v>
       </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>192.71</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>220</v>
+      </c>
+      <c r="C5">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>517.29</v>
+      </c>
+      <c r="C6">
+        <v>444.3</v>
+      </c>
+      <c r="D6">
+        <v>227.7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>314.57</v>
+      </c>
+      <c r="C8">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>185</v>
+      </c>
+      <c r="C9">
+        <v>102</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>1702.14</v>
+      </c>
+      <c r="C10">
+        <v>861.2</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>333</v>
+      </c>
+      <c r="C11">
+        <v>274.5</v>
+      </c>
+      <c r="D11">
+        <v>55.9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -942,198 +1148,39 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7B8642-CB04-4C66-8DC5-30F64C991194}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF04874-5E52-4CAF-80BF-0F4F010E9C18}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.81120000000000003</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>192.71</v>
-      </c>
-      <c r="C3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>220</v>
-      </c>
-      <c r="C5">
-        <v>66</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6">
-        <v>517.29</v>
-      </c>
-      <c r="C6">
-        <v>444.3</v>
-      </c>
-      <c r="D6">
-        <v>227.7</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>314.57</v>
-      </c>
-      <c r="C8">
-        <v>78</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>185</v>
-      </c>
-      <c r="C9">
-        <v>102</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>1702.14</v>
-      </c>
-      <c r="C10">
-        <v>861.2</v>
-      </c>
-      <c r="D10">
-        <v>56</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>333</v>
-      </c>
-      <c r="C11">
-        <v>274.5</v>
-      </c>
-      <c r="D11">
-        <v>55.9</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>0.49769999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1142,39 +1189,39 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9F920B-16FB-4393-9856-AF142B016095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA441E4D-3EA7-459F-85DE-ECA5E8A27D8A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.81120000000000003</v>
+        <v>7657579.3700000001</v>
       </c>
       <c r="B2">
-        <v>0.63560000000000005</v>
+        <v>5474361.1100000003</v>
       </c>
       <c r="C2">
-        <v>0.53320000000000001</v>
+        <v>3731500</v>
       </c>
       <c r="D2">
-        <v>0.49769999999999998</v>
+        <v>3034115.53</v>
       </c>
     </row>
   </sheetData>
@@ -1183,39 +1230,172 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92A63BD-08BF-48B4-8775-74AC8131084F}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0160E0F-AD26-48ED-8931-1C59DFE62250}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4035866-F30E-4239-8029-E32D08CAEEBA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>7657579.3700000001</v>
-      </c>
-      <c r="B2">
-        <v>5474361.1100000003</v>
-      </c>
-      <c r="C2">
-        <v>3731500</v>
-      </c>
-      <c r="D2">
-        <v>3034115.53</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1224,19 +1404,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EDAEEE-57BE-437F-AD35-40710465E339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221ABC6-770B-4F46-8362-7A6F0CE97577}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1271,7 +1451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1306,7 +1486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1341,7 +1521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1376,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1411,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1446,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1481,7 +1661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1516,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1586,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1627,14 +1807,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144BCC24-8A69-4996-B30C-614672110C9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420D5219-3D62-48D2-B079-889AEB0D6350}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1651,7 +1833,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1668,7 +1850,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1685,7 +1867,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1702,7 +1884,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1719,7 +1901,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1736,7 +1918,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1753,7 +1935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1770,7 +1952,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1787,7 +1969,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1804,7 +1986,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1821,7 +2003,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1844,14 +2026,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33051478-F6D3-4475-8480-F2CF825CE378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E078A6-3DE3-4FBD-B546-0DA5EF096AA6}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1867,7 +2049,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1875,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1883,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1891,7 +2073,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1899,7 +2081,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1907,7 +2089,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1915,7 +2097,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1923,7 +2105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1931,7 +2113,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1945,14 +2127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD4047E-AB93-4DC5-B789-053BA65F46B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C4674D-613B-47DC-95EC-A125610F3DBD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1960,7 +2142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1968,7 +2150,7 @@
         <v>0.34735402116783071</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1976,12 +2158,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1989,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2003,14 +2185,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8B9343-7A8D-46EB-B401-069B95278156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03C60C6-D733-44AF-9BC0-050CCF024BCE}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -2018,7 +2200,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -2026,7 +2208,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -2034,7 +2216,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -2042,7 +2224,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -2050,7 +2232,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -2058,7 +2240,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -2066,7 +2248,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -2074,7 +2256,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -2082,7 +2264,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -2090,7 +2272,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -2098,7 +2280,7 @@
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -2106,7 +2288,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -2114,7 +2296,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -2122,7 +2304,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -2130,7 +2312,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -2138,7 +2320,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -2146,7 +2328,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -2154,7 +2336,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -2162,7 +2344,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -2170,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -2178,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -2186,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -2194,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -2202,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -2210,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -2218,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -2226,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -2234,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -2248,25 +2430,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01227A19-DAA9-40BA-8159-509A46C35B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE8A0B0-FF39-49E0-ADEA-C8C600021327}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -2289,7 +2471,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2312,7 +2494,7 @@
         <v>837.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2335,7 +2517,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2358,7 +2540,7 @@
         <v>450.79999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2381,7 +2563,7 @@
         <v>941.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -2404,7 +2586,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2427,7 +2609,7 @@
         <v>506.79999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -2450,7 +2632,7 @@
         <v>1114.1000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -2473,7 +2655,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -2496,7 +2678,7 @@
         <v>599.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2519,7 +2701,7 @@
         <v>1319.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -2542,7 +2724,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2571,16 +2753,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D179FE01-73A4-4F8D-AE11-2B1C5DCF85D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879CF66E-0559-4CA6-9CC7-E6C1E475771D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -2594,7 +2776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
@@ -2608,7 +2790,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -2622,7 +2804,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>69</v>
       </c>
@@ -2642,55 +2824,41 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E25F9-B4AF-4660-B439-978F43A19A38}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51FC39B-AAD9-4476-8BBF-DA36EB745D6A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1.05</v>
+        <v>1500</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.95</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
+        <v>1900</v>
+      </c>
+      <c r="C2">
+        <v>2300</v>
+      </c>
+      <c r="D2">
+        <v>2730</v>
       </c>
     </row>
   </sheetData>

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="115_{34DC912F-EE65-44D9-9C9B-3B52B854FD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5E6DB9A-53C1-435D-BBD5-A56E02019541}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="115_{34DC912F-EE65-44D9-9C9B-3B52B854FD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023C3E1A-02F7-4ADD-91D3-56A17B208543}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="6" activeTab="8" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>parameter</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>elec_taxes_levies</t>
-  </si>
-  <si>
-    <t>use_stochastic_demand</t>
   </si>
   <si>
     <t>technology</t>
@@ -749,11 +746,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9590D77B-7759-431A-924A-4D4114C0C169}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -835,14 +838,6 @@
       </c>
       <c r="C8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -865,13 +860,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -879,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -890,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -911,13 +906,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -925,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -936,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -957,24 +952,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -991,7 +986,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>192.71</v>
@@ -1008,7 +1003,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1025,7 +1020,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>220</v>
@@ -1042,7 +1037,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>517.29</v>
@@ -1059,7 +1054,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1076,7 +1071,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>314.57</v>
@@ -1093,7 +1088,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>185</v>
@@ -1110,7 +1105,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>1702.14</v>
@@ -1127,7 +1122,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>333</v>
@@ -1157,16 +1152,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1198,16 +1193,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1249,30 +1244,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1284,18 +1279,18 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1304,15 +1299,15 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1324,15 +1319,15 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1344,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1373,29 +1368,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1418,42 +1413,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>330</v>
@@ -1477,7 +1472,7 @@
         <v>0.26</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1488,7 +1483,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>430</v>
@@ -1512,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1523,7 +1518,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>320</v>
@@ -1547,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -1558,7 +1553,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>185</v>
@@ -1582,7 +1577,7 @@
         <v>0.21</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1593,7 +1588,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>522</v>
@@ -1617,7 +1612,7 @@
         <v>0.27</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -1628,7 +1623,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>1700</v>
@@ -1652,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -1663,7 +1658,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>275</v>
@@ -1687,7 +1682,7 @@
         <v>0.5</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -1698,7 +1693,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1722,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -1733,7 +1728,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>220</v>
@@ -1757,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1768,7 +1763,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1792,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1818,24 +1813,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>-1</v>
@@ -1852,7 +1847,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>-1</v>
@@ -1869,7 +1864,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -1886,7 +1881,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>-1</v>
@@ -1903,7 +1898,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>-1</v>
@@ -1920,7 +1915,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -1937,7 +1932,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>-1</v>
@@ -1954,7 +1949,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>-1</v>
@@ -1971,7 +1966,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>-1</v>
@@ -1988,7 +1983,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>-1</v>
@@ -2005,7 +2000,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>-1</v>
@@ -2043,7 +2038,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>400</v>
@@ -2051,7 +2046,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2059,7 +2054,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2067,7 +2062,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>0.95</v>
@@ -2075,7 +2070,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>0.02</v>
@@ -2083,7 +2078,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>0.25</v>
@@ -2091,7 +2086,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>0.25</v>
@@ -2099,7 +2094,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2107,7 +2102,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>1000</v>
@@ -2115,7 +2110,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2136,15 +2131,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>0.34735402116783071</v>
@@ -2152,7 +2147,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2160,12 +2155,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2173,7 +2168,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2194,10 +2189,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2450,25 +2445,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2476,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1">
         <v>2023</v>
@@ -2499,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4">
         <v>2023</v>
@@ -2522,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
@@ -2545,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2">
         <v>2030</v>
@@ -2568,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4">
         <v>2030</v>
@@ -2591,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2">
         <v>2030</v>
@@ -2614,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3">
         <v>2040</v>
@@ -2637,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4">
         <v>2040</v>
@@ -2660,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3">
         <v>2040</v>
@@ -2683,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>2050</v>
@@ -2706,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4">
         <v>2050</v>
@@ -2729,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>2050</v>
@@ -2764,21 +2759,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>0.6</v>
@@ -2792,7 +2787,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -2806,7 +2801,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -2827,7 +2822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51FC39B-AAD9-4476-8BBF-DA36EB745D6A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2835,16 +2830,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -2,31 +2,37 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanhachez/Documents/ongoing - DHN_expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ABD371-D2FC-3B48-84C2-48AB47D892AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C61360E-1A9E-3C4A-BCFE-ABD30CD28828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30220" yWindow="-6640" windowWidth="28020" windowHeight="21800" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="ListPeriods" sheetId="11" r:id="rId2"/>
-    <sheet name="ListPriceScenarios" sheetId="12" r:id="rId3"/>
-    <sheet name="ListPolicyScenarios" sheetId="13" r:id="rId4"/>
-    <sheet name="ListCarriers" sheetId="14" r:id="rId5"/>
-    <sheet name="Technologies" sheetId="2" r:id="rId6"/>
-    <sheet name="Storage" sheetId="3" r:id="rId7"/>
-    <sheet name="EmissionFactors" sheetId="4" r:id="rId8"/>
-    <sheet name="EmissionFactorElectricity" sheetId="10" r:id="rId9"/>
-    <sheet name="EnergyPriceMap" sheetId="5" r:id="rId10"/>
-    <sheet name="CarbonTrajectories" sheetId="7" r:id="rId11"/>
-    <sheet name="PriceTransitions" sheetId="6" r:id="rId12"/>
-    <sheet name="CarbonProbabilities" sheetId="8" r:id="rId13"/>
-    <sheet name="DemandUncertainty" sheetId="9" r:id="rId14"/>
+    <sheet name="Description" sheetId="18" r:id="rId1"/>
+    <sheet name="ModelConfig" sheetId="1" r:id="rId2"/>
+    <sheet name="ListPeriods" sheetId="11" r:id="rId3"/>
+    <sheet name="ListTemperatureScenarios" sheetId="15" r:id="rId4"/>
+    <sheet name="ListPriceScenarios" sheetId="12" r:id="rId5"/>
+    <sheet name="ListPolicyScenarios" sheetId="13" r:id="rId6"/>
+    <sheet name="ListCarriers" sheetId="14" r:id="rId7"/>
+    <sheet name="Technologies" sheetId="2" r:id="rId8"/>
+    <sheet name="Storage" sheetId="3" r:id="rId9"/>
+    <sheet name="EmissionFactors" sheetId="4" r:id="rId10"/>
+    <sheet name="EmissionFactorElectricity" sheetId="10" r:id="rId11"/>
+    <sheet name="TemperatureEfficiency" sheetId="16" r:id="rId12"/>
+    <sheet name="ExistingCapacity" sheetId="20" r:id="rId13"/>
+    <sheet name="EnergyPriceMap" sheetId="5" r:id="rId14"/>
+    <sheet name="CarbonTrajectories" sheetId="7" r:id="rId15"/>
+    <sheet name="RessourcesLimitations" sheetId="19" r:id="rId16"/>
+    <sheet name="PriceTransitions" sheetId="6" r:id="rId17"/>
+    <sheet name="CarbonProbabilities" sheetId="8" r:id="rId18"/>
+    <sheet name="TemperatureProbabilities" sheetId="17" r:id="rId19"/>
+    <sheet name="DemandUncertainty" sheetId="9" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="147">
   <si>
     <t>multiplier</t>
   </si>
@@ -313,17 +319,210 @@
   </si>
   <si>
     <t>initial_capacity[MW_th]2</t>
+  </si>
+  <si>
+    <t>highT</t>
+  </si>
+  <si>
+    <t>lowT</t>
+  </si>
+  <si>
+    <t>High temperature (80/60)</t>
+  </si>
+  <si>
+    <t>Low temperature (60/40)</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>Sheet name</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Long Description</t>
+  </si>
+  <si>
+    <t>ModelConfig</t>
+  </si>
+  <si>
+    <t>ListPeriods</t>
+  </si>
+  <si>
+    <t>ListTemperatureScenarios</t>
+  </si>
+  <si>
+    <t>ListPriceScenarios</t>
+  </si>
+  <si>
+    <t>ListPolicyScenarios</t>
+  </si>
+  <si>
+    <t>ListCarriers</t>
+  </si>
+  <si>
+    <t>Technologies</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>EmissionFactors</t>
+  </si>
+  <si>
+    <t>EmissionFactorElectricity</t>
+  </si>
+  <si>
+    <t>TemperatureEfficiency</t>
+  </si>
+  <si>
+    <t>EnergyPriceMap</t>
+  </si>
+  <si>
+    <t>CarbonTrajectory</t>
+  </si>
+  <si>
+    <t>PriceTransitions</t>
+  </si>
+  <si>
+    <t>CarbonProbabilities</t>
+  </si>
+  <si>
+    <t>TemperatureProbabilities</t>
+  </si>
+  <si>
+    <t>DemandUncertainty</t>
+  </si>
+  <si>
+    <t>Gives some generic parameters</t>
+  </si>
+  <si>
+    <t>Gives the list of periods to use in the data</t>
+  </si>
+  <si>
+    <t>Gives the list of temperature scenarios used</t>
+  </si>
+  <si>
+    <t>Gives the list of price scenarios to use</t>
+  </si>
+  <si>
+    <t>Gives the list of policy scenarios to use</t>
+  </si>
+  <si>
+    <t>Gives the list of carriers usable by the system</t>
+  </si>
+  <si>
+    <t>List of available technologies and their characteristics</t>
+  </si>
+  <si>
+    <t>List of available storages and their characteristics</t>
+  </si>
+  <si>
+    <t>List of emission factors per carrier (exc. Electricity)</t>
+  </si>
+  <si>
+    <t>Projected emission factor for electricity</t>
+  </si>
+  <si>
+    <t>Efficiency of the technologies depending on the network temperature</t>
+  </si>
+  <si>
+    <t>Evolution of the carrier price throughout the year (exc electricity)</t>
+  </si>
+  <si>
+    <t>Transition probabilities for carrier prices</t>
+  </si>
+  <si>
+    <t>Transition probabilities for carbon</t>
+  </si>
+  <si>
+    <t>Evolution of carbon prices (exc electricity)</t>
+  </si>
+  <si>
+    <t>Transition probabilities for temperature</t>
+  </si>
+  <si>
+    <t>Demand variation probabilities</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>limitation</t>
+  </si>
+  <si>
+    <t>Half-way</t>
+  </si>
+  <si>
+    <t>Nuclear-based mix</t>
+  </si>
+  <si>
+    <t>Renewables mix</t>
+  </si>
+  <si>
+    <t>Ambitious climate scenario</t>
+  </si>
+  <si>
+    <t>Business as usual</t>
+  </si>
+  <si>
+    <t>Fossil-fuel devlopment</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>COP calculation based on https://www.sciencedirect.com/science/article/pii/S0196890424009245</t>
+  </si>
+  <si>
+    <t>30 for datacenter</t>
+  </si>
+  <si>
+    <t>10 for seawater</t>
+  </si>
+  <si>
+    <t>18 for wastewater</t>
+  </si>
+  <si>
+    <t>5 for LowTempSources_HeatPump</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>lives</t>
+  </si>
+  <si>
+    <t>retirement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +551,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -367,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -474,12 +701,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -543,13 +812,43 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -557,7 +856,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{127FEE2A-CF76-4986-A4BC-3363233C8C76}"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="64">
     <dxf>
       <font>
         <b val="0"/>
@@ -575,7 +874,27 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -635,8 +954,89 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -878,7 +1278,342 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1081,6 +1816,26 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,##0.000000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1249,6 +2004,26 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1271,6 +2046,25 @@
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1291,108 +2085,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAF6216C-F725-4A40-96FC-5D15647CF812}" name="Table2" displayName="Table2" ref="A1:A7" totalsRowShown="0">
-  <autoFilter ref="A1:A7" xr:uid="{FAF6216C-F725-4A40-96FC-5D15647CF812}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C381D0D6-DB33-BC49-AC66-ADB74ACA20EF}" name="period"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{B9571E1D-EB57-F940-A7EE-B4E016FED798}" name="Table19" displayName="Table19" ref="A1:C19" totalsRowShown="0">
+  <autoFilter ref="A1:C19" xr:uid="{B9571E1D-EB57-F940-A7EE-B4E016FED798}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D5F77C54-240D-B14D-B851-945DBDE3A08D}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{6DD15136-AC85-FA45-9C0B-509402894BA4}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{02AC5DDB-F4DD-A84D-97E6-8013F669BB43}" name="Column3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7E30E5B7-11E3-814C-85F7-241216FB886C}" name="Table11" displayName="Table11" ref="A1:E19" totalsRowShown="0">
-  <autoFilter ref="A1:E19" xr:uid="{7E30E5B7-11E3-814C-85F7-241216FB886C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
-    <sortCondition ref="A1:A19"/>
-  </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0905A90F-FAD4-E549-8039-012F5205C58D}" name="year" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{E1999FA7-AEBD-8548-9355-D0D0D76818F0}" name="policy" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6EA135D0-86CB-624E-8F5F-4ABCC50202B6}" name="description"/>
-    <tableColumn id="4" xr3:uid="{DC46E935-1502-0847-A45E-8023C0D521D5}" name="CO2tax" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{35F30A3F-D67A-2C48-B688-C685E32D4D1F}" name="unit" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B626484-85AF-5041-957F-E85DA4C25AB2}" name="Table3" displayName="Table3" ref="A1:A4" totalsRowShown="0">
-  <autoFilter ref="A1:A4" xr:uid="{8B626484-85AF-5041-957F-E85DA4C25AB2}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C36B60D9-30A8-5442-A73D-A5A1B9BF4E4E}" name="price"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{817AB5FC-614F-AC40-A946-5484D198EC66}" name="Table35" displayName="Table35" ref="A1:A4" totalsRowShown="0">
-  <autoFilter ref="A1:A4" xr:uid="{817AB5FC-614F-AC40-A946-5484D198EC66}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{14F03FE3-1DBD-7648-B650-E9D93D59107B}" name="price"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{23FC38AE-028C-A241-B2F3-27FC7C46409E}" name="Table12" displayName="Table12" ref="A1:A6" totalsRowShown="0">
-  <autoFilter ref="A1:A6" xr:uid="{23FC38AE-028C-A241-B2F3-27FC7C46409E}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E6BF1DC7-0434-8C4D-AA18-0BE254498D36}" name="carrier"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FD882A81-F8DE-0144-93E2-00CF1002DDDF}" name="Table5" displayName="Table5" ref="A1:M11" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:M11" xr:uid="{FD882A81-F8DE-0144-93E2-00CF1002DDDF}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{868DC66B-4871-9440-B784-62CA1C1DEB3D}" name="technology"/>
-    <tableColumn id="2" xr3:uid="{F361D323-2AB7-3243-8BF6-C7B1ED8F5941}" name="full_name"/>
-    <tableColumn id="3" xr3:uid="{79F346BB-FC78-FB4E-A9A0-FD4FA0309C2B}" name="max_additional_capacity[MW_th]" dataDxfId="36"/>
-    <tableColumn id="13" xr3:uid="{D9CC6A1D-6089-954D-8367-F8C68B36B603}" name="max_capacity[MW_th]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{BDBFA7FD-003F-7F4F-A3B2-20981C777A55}" name="investment_cost[MSEK/MW_th]" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{DFB17F4B-5A37-1642-8849-77F856E8018B}" name="lifetime_new" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{BDDCBB70-2C99-684C-A9A9-EBC0FC0A84B2}" name="fixed_om[MSEK/MW_th]" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{574866B3-F163-4D4C-B601-C51435C24A85}" name="variable_om[SEK/MWh_th]" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{438E0D88-9265-1940-BB5E-BCE87F228216}" name="efficiency_th" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{D00A978F-6086-4640-9ED7-C3C6D93C1328}" name="efficiency_el" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{F52C573D-5B66-A44D-ADF2-A8B3E8C8B50A}" name="energy_carrier"/>
-    <tableColumn id="11" xr3:uid="{C7994D6F-A295-D54A-A559-31FF5EEB1497}" name="lifetime_initial" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{84DA6FDF-66A0-E342-A352-BDC029078C61}" name="initial_capacity[MW_th]" dataDxfId="28"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EC74C452-8F93-274C-BBE5-D923918973C5}" name="Table13" displayName="Table13" ref="A1:N2" totalsRowShown="0" dataDxfId="27">
-  <autoFilter ref="A1:N2" xr:uid="{EC74C452-8F93-274C-BBE5-D923918973C5}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{51FE7937-DD9C-1B47-BC9B-AF8784B94687}" name="storage" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{6005D8F2-461A-974A-A102-9B614E3B3719}" name="investment_cost[MSEK/MW_th]" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{2D22C2C7-26D5-5E40-B5BD-47CC13254944}" name="max_additional_capacity[MW_th]" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F509AE3C-A221-C742-AEE6-FE6CAFB8A0E7}" name="fixed_om[MSEK/MW_th]" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{9758490E-650B-444A-8A8F-84BCA79A7747}" name="variable_om[SEK/MWh_th]" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{1A4DBDAF-8B14-3643-A41D-54ED8796F76C}" name="efficiency_th" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{4DFD5911-DFF8-C342-A6FF-8D0C33D3B6DF}" name="loss_rate" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{CB5053F0-5DCB-894C-B961-052A85F59B48}" name="max_charge_rate" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{84E99A4B-14DC-054A-BCE9-C59DD8F973D9}" name="max_discharge_rate" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{64973AB7-F48F-E44E-8B39-C1923C7D742F}" name="lifetime_new" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{8CB64883-5E67-5744-A208-1FFEDC61BAE4}" name="max_capacity[MW_th]" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{69ECC3DD-1C3A-134D-AF1A-E30B40742C6A}" name="initial_capacity[MW_th]" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{9861D714-A522-664E-BC10-1EAA1FD5D611}" name="lifetime_initial" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{5AF5D246-D5AA-E245-B2BB-C2D6F90BB03D}" name="initial_capacity[MW_th]2" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E58CCE58-DED8-A745-B8E8-1C0AE4CA34DC}" name="Table7" displayName="Table7" ref="A1:C6" totalsRowShown="0">
   <autoFilter ref="A1:C6" xr:uid="{E58CCE58-DED8-A745-B8E8-1C0AE4CA34DC}"/>
   <tableColumns count="3">
@@ -1404,11 +2108,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54A4F4A7-F816-E641-997E-CA2D25BCBEF6}" name="Table1" displayName="Table1" ref="A1:C29" totalsRowShown="0">
   <autoFilter ref="A1:C29" xr:uid="{54A4F4A7-F816-E641-997E-CA2D25BCBEF6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3BD6C692-C0CB-1F4A-A019-DE2E92CFAE2A}" name="year" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{3BD6C692-C0CB-1F4A-A019-DE2E92CFAE2A}" name="year" dataDxfId="35" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{0F280846-49F5-934B-A810-2C62B04991E6}" name="emission_factor" dataCellStyle="Normal 2"/>
     <tableColumn id="3" xr3:uid="{42EC7625-FDAE-7643-B488-248E7A630D8A}" name="unit" dataCellStyle="Normal 2"/>
   </tableColumns>
@@ -1416,18 +2120,239 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{76B69B43-422C-874C-867E-51CB70F7989F}" name="Table8" displayName="Table8" ref="A1:E73" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D16EDC38-DBCB-C642-BB89-7B6A02D83301}" name="Table17" displayName="Table17" ref="A1:D121" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="A1:D121" xr:uid="{D16EDC38-DBCB-C642-BB89-7B6A02D83301}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
+    <sortCondition ref="A1:A121"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{83E2A310-345F-4D48-88AB-6EB229FE61FB}" name="technology" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{127528C8-5862-1F45-B9D6-40D5551C6CFE}" name="efficiency" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{49020728-F636-3E40-B1DC-F8B22CE04462}" name="temperature" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{71FB06D7-AC0E-5543-8573-C772A08380AE}" name="year" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0E4498F7-5ACB-9242-9CBF-BF357AD529E3}" name="Table20" displayName="Table20" ref="A1:D18" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:D18" xr:uid="{0E4498F7-5ACB-9242-9CBF-BF357AD529E3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FA0AA9F4-F6FF-894A-BE11-953F947158F7}" name="technology" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{89CFC37E-CD5B-F74A-907A-0ABE3D42E617}" name="capacity" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{23E073AB-3198-8B45-AE46-99DE186F5E91}" name="lives" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{CF4FC934-47CC-2541-838B-BA7EA102F334}" name="retirement"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{76B69B43-422C-874C-867E-51CB70F7989F}" name="Table8" displayName="Table8" ref="A1:E73" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E73" xr:uid="{76B69B43-422C-874C-867E-51CB70F7989F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
-    <sortCondition ref="B1:B73"/>
+    <sortCondition ref="C1:C73"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{A137D309-D326-994A-9B80-E2B1EA0BB368}" name="price" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{ADF79471-6D89-F34E-974D-2BF2389E4936}" name="year" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{BA303E21-A160-F547-A428-749DB5EE1098}" name="carrier" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{961B8F42-D0F4-1640-9AF5-EDD3B18C132E}" name="value" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{40F2FE15-45B6-0743-9C61-FC51ACB800F7}" name="unit" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A137D309-D326-994A-9B80-E2B1EA0BB368}" name="price" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{ADF79471-6D89-F34E-974D-2BF2389E4936}" name="year" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{BA303E21-A160-F547-A428-749DB5EE1098}" name="carrier" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{961B8F42-D0F4-1640-9AF5-EDD3B18C132E}" name="value" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{40F2FE15-45B6-0743-9C61-FC51ACB800F7}" name="unit" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{7E30E5B7-11E3-814C-85F7-241216FB886C}" name="Table11" displayName="Table11" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19" xr:uid="{7E30E5B7-11E3-814C-85F7-241216FB886C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0905A90F-FAD4-E549-8039-012F5205C58D}" name="year" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E1999FA7-AEBD-8548-9355-D0D0D76818F0}" name="policy" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{6EA135D0-86CB-624E-8F5F-4ABCC50202B6}" name="description"/>
+    <tableColumn id="4" xr3:uid="{DC46E935-1502-0847-A45E-8023C0D521D5}" name="CO2tax" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{35F30A3F-D67A-2C48-B688-C685E32D4D1F}" name="unit" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5A7D6F19-0095-0A4B-B5B7-E919097EBFFE}" name="Table6" displayName="Table6" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{5A7D6F19-0095-0A4B-B5B7-E919097EBFFE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A2A4CC35-996B-A443-86AB-BCCFA044094C}" name="carrier"/>
+    <tableColumn id="2" xr3:uid="{CEA86FFC-D5D5-3B41-9550-5B804A695D93}" name="year"/>
+    <tableColumn id="3" xr3:uid="{C618D355-1D89-7F49-8ACB-D280B0A7DB72}" name="limitation" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{4B323D86-19D6-C14D-B83A-58CF61577FE2}" name="unit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{44F84B62-E9B4-8A48-8404-AFDDE0D91854}" name="Table15" displayName="Table15" ref="A1:D4" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:D4" xr:uid="{44F84B62-E9B4-8A48-8404-AFDDE0D91854}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F2329A21-B3E7-5549-A709-69C090FC2AE9}" name="price"/>
+    <tableColumn id="2" xr3:uid="{52E3A01F-C174-D642-A274-452231641161}" name="high" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9B5E0F86-3424-3D48-B9F1-E7DA23BD026C}" name="mid" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A9EDD2F6-AD52-3A49-89DB-3D2BD6F4480A}" name="low" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B6AFC741-EC4B-0241-9512-6FDF9848BF33}" name="Table16" displayName="Table16" ref="A1:D4" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:D4" xr:uid="{B6AFC741-EC4B-0241-9512-6FDF9848BF33}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C9246BEC-CB29-8A4D-B32C-AF991C082AF8}" name="scenario" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FD79EF99-39ED-064A-9B7C-57F6EEEC3B3F}" name="policy" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{8F2FBAA4-E4AF-964C-BF19-FD334DBF6C39}" name="description"/>
+    <tableColumn id="4" xr3:uid="{5CACB908-336F-094C-B037-0AA4D655D04D}" name="probability" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4C1D1011-935D-F748-BE5C-0CC0941355C0}" name="Table911" displayName="Table911" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{4C1D1011-935D-F748-BE5C-0CC0941355C0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A52C9FB6-BD7C-9846-8D33-F74FD83C222A}" name="temp"/>
+    <tableColumn id="2" xr3:uid="{1ECDABE9-D194-1F41-9B19-BA80095AC59A}" name="probability"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{26ED4D50-1123-E949-B24C-D9042A5B61CF}" name="Table18" displayName="Table18" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{26ED4D50-1123-E949-B24C-D9042A5B61CF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DD74AD4C-95CB-C443-AD2E-6BE1218AEB3E}" name="parameter"/>
+    <tableColumn id="2" xr3:uid="{4C68EC3E-0172-E845-9C6B-1ED078CD7364}" name="value" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{C86C030E-E0D4-0841-8D76-4002473F90F1}" name="unit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C8BE03C9-15F3-0E45-9E78-3AD525DBD3CB}" name="Table14" displayName="Table14" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{C8BE03C9-15F3-0E45-9E78-3AD525DBD3CB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9027F055-3381-BF41-83D4-A58563ADC5E2}" name="multiplier"/>
+    <tableColumn id="2" xr3:uid="{74C29495-DC62-974F-9185-754C76C6D1D3}" name="probability" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{89BBF1AB-58DB-B24D-8190-10BBBAC011B3}" name="description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FAF6216C-F725-4A40-96FC-5D15647CF812}" name="Table2" displayName="Table2" ref="A1:A7" totalsRowShown="0">
+  <autoFilter ref="A1:A7" xr:uid="{FAF6216C-F725-4A40-96FC-5D15647CF812}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C381D0D6-DB33-BC49-AC66-ADB74ACA20EF}" name="period"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3C33579A-3E14-D64E-9018-1AF695D4C8B1}" name="Table9" displayName="Table9" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{3C33579A-3E14-D64E-9018-1AF695D4C8B1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ED20BE61-C27B-5D4E-ABB1-A23EFA3CCE6B}" name="temp"/>
+    <tableColumn id="2" xr3:uid="{F33F6078-1627-E94B-88E4-D984F5DFDF50}" name="description"/>
+    <tableColumn id="3" xr3:uid="{F114FCAF-AA77-2A44-8D76-F57DCC1F311F}" name="consider"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8B626484-85AF-5041-957F-E85DA4C25AB2}" name="Table3" displayName="Table3" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{8B626484-85AF-5041-957F-E85DA4C25AB2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C36B60D9-30A8-5442-A73D-A5A1B9BF4E4E}" name="price"/>
+    <tableColumn id="3" xr3:uid="{940C6F2B-B766-364C-A5B6-3499606ACB70}" name="description"/>
+    <tableColumn id="2" xr3:uid="{1B34DAAF-21C1-A343-8199-B6012F89C430}" name="consider"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{817AB5FC-614F-AC40-A946-5484D198EC66}" name="Table35" displayName="Table35" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{817AB5FC-614F-AC40-A946-5484D198EC66}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{14F03FE3-1DBD-7648-B650-E9D93D59107B}" name="policy"/>
+    <tableColumn id="3" xr3:uid="{66CD3608-EBFE-4A46-9047-5F63E2E4DDC0}" name="description"/>
+    <tableColumn id="2" xr3:uid="{CFEFBC9E-1FAE-6B41-AEBD-7DB7A89C3100}" name="consider"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{23FC38AE-028C-A241-B2F3-27FC7C46409E}" name="Table12" displayName="Table12" ref="A1:A6" totalsRowShown="0">
+  <autoFilter ref="A1:A6" xr:uid="{23FC38AE-028C-A241-B2F3-27FC7C46409E}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E6BF1DC7-0434-8C4D-AA18-0BE254498D36}" name="carrier"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FD882A81-F8DE-0144-93E2-00CF1002DDDF}" name="Table5" displayName="Table5" ref="A1:M11" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+  <autoFilter ref="A1:M11" xr:uid="{FD882A81-F8DE-0144-93E2-00CF1002DDDF}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{868DC66B-4871-9440-B784-62CA1C1DEB3D}" name="technology"/>
+    <tableColumn id="2" xr3:uid="{F361D323-2AB7-3243-8BF6-C7B1ED8F5941}" name="full_name"/>
+    <tableColumn id="3" xr3:uid="{79F346BB-FC78-FB4E-A9A0-FD4FA0309C2B}" name="max_additional_capacity[MW_th]" dataDxfId="60"/>
+    <tableColumn id="13" xr3:uid="{D9CC6A1D-6089-954D-8367-F8C68B36B603}" name="max_capacity[MW_th]" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{BDBFA7FD-003F-7F4F-A3B2-20981C777A55}" name="investment_cost[MSEK/MW_th]" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{DFB17F4B-5A37-1642-8849-77F856E8018B}" name="lifetime_new" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{BDDCBB70-2C99-684C-A9A9-EBC0FC0A84B2}" name="fixed_om[MSEK/MW_th]" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{574866B3-F163-4D4C-B601-C51435C24A85}" name="variable_om[SEK/MWh_th]" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{438E0D88-9265-1940-BB5E-BCE87F228216}" name="efficiency_th" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{D00A978F-6086-4640-9ED7-C3C6D93C1328}" name="efficiency_el" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{F52C573D-5B66-A44D-ADF2-A8B3E8C8B50A}" name="energy_carrier"/>
+    <tableColumn id="11" xr3:uid="{C7994D6F-A295-D54A-A559-31FF5EEB1497}" name="lifetime_initial" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{84DA6FDF-66A0-E342-A352-BDC029078C61}" name="initial_capacity[MW_th]" dataDxfId="51"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EC74C452-8F93-274C-BBE5-D923918973C5}" name="Table13" displayName="Table13" ref="A1:N2" totalsRowShown="0" dataDxfId="50">
+  <autoFilter ref="A1:N2" xr:uid="{EC74C452-8F93-274C-BBE5-D923918973C5}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{51FE7937-DD9C-1B47-BC9B-AF8784B94687}" name="storage" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{6005D8F2-461A-974A-A102-9B614E3B3719}" name="investment_cost[MSEK/MW_th]" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{2D22C2C7-26D5-5E40-B5BD-47CC13254944}" name="max_additional_capacity[MW_th]" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{F509AE3C-A221-C742-AEE6-FE6CAFB8A0E7}" name="fixed_om[MSEK/MW_th]" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{9758490E-650B-444A-8A8F-84BCA79A7747}" name="variable_om[SEK/MWh_th]" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{1A4DBDAF-8B14-3643-A41D-54ED8796F76C}" name="efficiency_th" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{4DFD5911-DFF8-C342-A6FF-8D0C33D3B6DF}" name="loss_rate" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{CB5053F0-5DCB-894C-B961-052A85F59B48}" name="max_charge_rate" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{84E99A4B-14DC-054A-BCE9-C59DD8F973D9}" name="max_discharge_rate" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{64973AB7-F48F-E44E-8B39-C1923C7D742F}" name="lifetime_new" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{8CB64883-5E67-5744-A208-1FFEDC61BAE4}" name="max_capacity[MW_th]" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{69ECC3DD-1C3A-134D-AF1A-E30B40742C6A}" name="initial_capacity[MW_th]" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{9861D714-A522-664E-BC10-1EAA1FD5D611}" name="lifetime_initial" dataDxfId="37"/>
+    <tableColumn id="14" xr3:uid="{5AF5D246-D5AA-E245-B2BB-C2D6F90BB03D}" name="initial_capacity[MW_th]2" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1725,121 +2650,2651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A024B1B6-D767-AB48-B915-9C2554CC9AA3}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="18">
-        <f>COUNT(Table2[period])</f>
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.34735402116783071</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="18">
-        <f>Table2[[#This Row],[period]]-ListPeriods!A2</f>
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="15">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="15">
-        <v>7901900</v>
+        <v>52</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="15">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="31">
-        <v>1000000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="19">
-        <v>150</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA0959A-48B5-4E78-9ABA-7625B4241542}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>2026</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>2027</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1.84E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1.47E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>2029</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1.18E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>2030</v>
+      </c>
+      <c r="B9" s="12">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>2031</v>
+      </c>
+      <c r="B10" s="12">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>2032</v>
+      </c>
+      <c r="B11" s="12">
+        <v>5.3E-3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>2033</v>
+      </c>
+      <c r="B12" s="12">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>2034</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>2035</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1.8E-3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>2036</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>2037</v>
+      </c>
+      <c r="B16" s="12">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>2038</v>
+      </c>
+      <c r="B17" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>2039</v>
+      </c>
+      <c r="B18" s="12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>2040</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>2041</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>2042</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>2043</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>2044</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>2045</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>2046</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>2047</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>2048</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>2049</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>2050</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E523C0-40CD-474E-8EE1-DF88A4494E55}">
+  <dimension ref="A1:D121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="33">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="33">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="33">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="33">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="33">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="33">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="33">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="33">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="33">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="33">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="33">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="33">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="33">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="33">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="33">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="33">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="33">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="33">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="33">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="33">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="35">
+        <v>2.9845833333333331</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="35">
+        <v>2.9845833333333331</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="35">
+        <v>2.9845833333333331</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="35">
+        <v>2.9845833333333331</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="35">
+        <v>2.9845833333333331</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="35">
+        <v>2.9845833333333331</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="38">
+        <v>0.98</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="40">
+        <v>0.98</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="10">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="10">
+        <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
+        <v>2.6011538461538461</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="10">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="10">
+        <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
+        <v>2.6011538461538461</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="10">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="10">
+        <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
+        <v>2.6011538461538461</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="10">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="10">
+        <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
+        <v>2.6011538461538461</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="10">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="10">
+        <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
+        <v>2.6011538461538461</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="10">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="10">
+        <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
+        <v>2.6011538461538461</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="45">
+        <v>2.2384374999999999</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="45">
+        <v>2.8179166666666666</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="45">
+        <v>2.2384374999999999</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="45">
+        <v>2.8179166666666666</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="45">
+        <v>2.2384374999999999</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="45">
+        <v>2.8179166666666666</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="45">
+        <v>2.2384374999999999</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="45">
+        <v>2.8179166666666666</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="45">
+        <v>2.2384374999999999</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="45">
+        <v>2.8179166666666666</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="45">
+        <v>2.2384374999999999</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="45">
+        <v>2.8179166666666666</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="10">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="10">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="10">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="10">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="45">
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="45">
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="10">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="10">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="45">
+        <v>0.51544999999999996</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" s="45">
+        <v>0.51544999999999996</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="10">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="10">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D97" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="10">
+        <v>2.4871527777777778</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="10">
+        <v>3.2514423076923076</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="10">
+        <v>2.4871527777777778</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="10">
+        <v>3.2514423076923076</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="10">
+        <v>2.4871527777777778</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="10">
+        <v>3.2514423076923076</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="10">
+        <v>2.4871527777777778</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D104" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" s="10">
+        <v>3.2514423076923076</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="10">
+        <v>2.4871527777777778</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B107" s="10">
+        <v>3.2514423076923076</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B108" s="10">
+        <v>2.4871527777777778</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D108" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109" s="10">
+        <v>3.2514423076923076</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D109" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C110" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B111" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C111" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B113" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D116" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B121" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C79299-0480-4B44-9C92-0431307BE1D2}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="46">
+        <v>176.11</v>
+      </c>
+      <c r="C2" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="46">
+        <v>154</v>
+      </c>
+      <c r="C3" s="46">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="46">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="C4" s="46">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="46">
+        <v>236.57</v>
+      </c>
+      <c r="C5" s="46">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="46">
+        <v>83</v>
+      </c>
+      <c r="C6" s="46">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="46">
+        <v>840.94</v>
+      </c>
+      <c r="C7" s="46">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="46">
+        <v>58.5</v>
+      </c>
+      <c r="C8" s="46">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="46">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C9" s="46">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="46">
+        <v>66</v>
+      </c>
+      <c r="C10" s="46">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="46">
+        <v>216.6</v>
+      </c>
+      <c r="C11" s="46">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="46">
+        <v>78</v>
+      </c>
+      <c r="C12" s="46">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="46">
+        <v>102</v>
+      </c>
+      <c r="C13" s="46">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="46">
+        <v>805.2</v>
+      </c>
+      <c r="C14" s="46">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="46">
+        <v>218.6</v>
+      </c>
+      <c r="C15" s="46">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="46">
+        <v>227.7</v>
+      </c>
+      <c r="C16" s="46">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="46">
+        <v>56</v>
+      </c>
+      <c r="C17" s="46">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="46">
+        <v>55.9</v>
+      </c>
+      <c r="C18" s="46">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>2040</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1875,7 +5330,7 @@
       <c r="B2">
         <v>2025</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="20">
@@ -1887,16 +5342,16 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>2025</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="20">
-        <v>1548</v>
+        <v>1083.5999999999999</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>31</v>
@@ -1904,16 +5359,16 @@
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>2025</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="20">
-        <v>1083.5999999999999</v>
+        <v>1548</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>31</v>
@@ -1924,13 +5379,13 @@
         <v>59</v>
       </c>
       <c r="B5">
-        <v>2025</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>54</v>
+        <v>2030</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="20">
-        <v>740.59999999999991</v>
+        <v>2260.7000000000003</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>31</v>
@@ -1938,16 +5393,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>2025</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>54</v>
+        <v>2030</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="20">
-        <v>644</v>
+        <v>1217.3</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>31</v>
@@ -1955,16 +5410,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B7">
-        <v>2025</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>54</v>
+        <v>2030</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="20">
-        <v>547.4</v>
+        <v>1739</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>31</v>
@@ -1972,16 +5427,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8">
-        <v>2025</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>34</v>
+        <v>2035</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D8" s="20">
-        <v>-1071</v>
+        <v>2468.7000000000003</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>31</v>
@@ -1989,16 +5444,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B9">
-        <v>2025</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="21">
-        <v>-1260</v>
+        <v>2035</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1329.3</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>31</v>
@@ -2006,16 +5461,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B10">
-        <v>2025</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>34</v>
+        <v>2035</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="20">
-        <v>-1449</v>
+        <v>1899</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>31</v>
@@ -2026,13 +5481,13 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>2025</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>52</v>
+        <v>2040</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="20">
-        <v>304.2</v>
+        <v>2676.7000000000003</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>31</v>
@@ -2040,16 +5495,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B12">
-        <v>2025</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>52</v>
+        <v>2040</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="20">
-        <v>234</v>
+        <v>1441.3</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>31</v>
@@ -2057,16 +5512,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B13">
-        <v>2025</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>52</v>
+        <v>2040</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="20">
-        <v>163.79999999999998</v>
+        <v>2059</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>31</v>
@@ -2077,13 +5532,13 @@
         <v>59</v>
       </c>
       <c r="B14">
-        <v>2030</v>
-      </c>
-      <c r="C14" s="29" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="20">
-        <v>2260.7000000000003</v>
+        <v>2922.4</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>31</v>
@@ -2091,16 +5546,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B15">
-        <v>2030</v>
-      </c>
-      <c r="C15" s="29" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="20">
-        <v>1739</v>
+        <v>1573.6</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>31</v>
@@ -2108,16 +5563,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B16">
-        <v>2030</v>
-      </c>
-      <c r="C16" s="29" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="20">
-        <v>1217.3</v>
+        <v>2248</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>31</v>
@@ -2128,13 +5583,13 @@
         <v>59</v>
       </c>
       <c r="B17">
-        <v>2030</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>54</v>
+        <v>2050</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="20">
-        <v>832.59999999999991</v>
+        <v>3168.1</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>31</v>
@@ -2142,16 +5597,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B18">
-        <v>2030</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>54</v>
+        <v>2050</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="20">
-        <v>724</v>
+        <v>1705.8999999999999</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>31</v>
@@ -2159,16 +5614,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B19">
-        <v>2030</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>54</v>
+        <v>2050</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="23">
-        <v>615.4</v>
+        <v>2437</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>31</v>
@@ -2176,16 +5631,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D20" s="20">
-        <v>-1359.1499999999999</v>
+        <v>740.59999999999991</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>31</v>
@@ -2193,16 +5648,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B21">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="21">
-        <v>-1599</v>
+        <v>54</v>
+      </c>
+      <c r="D21" s="20">
+        <v>547.4</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>31</v>
@@ -2210,16 +5665,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B22">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D22" s="20">
-        <v>-1838.85</v>
+        <v>644</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>31</v>
@@ -2233,10 +5688,10 @@
         <v>2030</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" s="20">
-        <v>341.90000000000003</v>
+        <v>832.59999999999991</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>31</v>
@@ -2244,16 +5699,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>2030</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" s="20">
-        <v>263</v>
+        <v>615.4</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>31</v>
@@ -2261,16 +5716,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>2030</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25" s="20">
-        <v>184.1</v>
+        <v>724</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>31</v>
@@ -2284,10 +5739,10 @@
         <v>2035</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D26" s="20">
-        <v>2468.7000000000003</v>
+        <v>909.07499999999993</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>31</v>
@@ -2295,16 +5750,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>2035</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D27" s="20">
-        <v>1899</v>
+        <v>671.92499999999995</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>31</v>
@@ -2312,16 +5767,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>2035</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20">
-        <v>1329.3</v>
+        <v>790.5</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>31</v>
@@ -2332,13 +5787,13 @@
         <v>59</v>
       </c>
       <c r="B29">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D29" s="20">
-        <v>909.07499999999993</v>
+        <v>985.55</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>31</v>
@@ -2346,16 +5801,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B30">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="20">
-        <v>790.5</v>
+        <v>728.44999999999993</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>31</v>
@@ -2363,16 +5818,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="20">
-        <v>671.92499999999995</v>
+        <v>857</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>31</v>
@@ -2380,16 +5835,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D32" s="20">
-        <v>-1524.05</v>
+        <v>1076.4000000000001</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>31</v>
@@ -2397,16 +5852,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B33">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D33" s="20">
-        <v>-1793</v>
+        <v>795.59999999999991</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>31</v>
@@ -2414,16 +5869,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B34">
-        <v>2035</v>
+        <v>2045</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D34" s="20">
-        <v>-2061.9499999999998</v>
+        <v>936</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>31</v>
@@ -2434,13 +5889,13 @@
         <v>59</v>
       </c>
       <c r="B35">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D35" s="20">
-        <v>372.45000000000005</v>
+        <v>1167.25</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>31</v>
@@ -2448,16 +5903,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B36">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D36" s="20">
-        <v>286.5</v>
+        <v>862.75</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>31</v>
@@ -2465,16 +5920,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B37">
-        <v>2035</v>
+        <v>2050</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D37" s="23">
-        <v>200.55</v>
+        <v>1015</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>31</v>
@@ -2485,13 +5940,13 @@
         <v>59</v>
       </c>
       <c r="B38">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" s="20">
-        <v>2676.7000000000003</v>
+        <v>-945</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>31</v>
@@ -2499,16 +5954,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B39">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="20">
-        <v>2059</v>
+        <v>-1449</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>31</v>
@@ -2516,16 +5971,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B40">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="20">
-        <v>1441.3</v>
+        <v>34</v>
+      </c>
+      <c r="D40" s="21">
+        <v>-1260</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>31</v>
@@ -2536,13 +5991,13 @@
         <v>59</v>
       </c>
       <c r="B41">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D41" s="20">
-        <v>985.55</v>
+        <v>-1199.25</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>31</v>
@@ -2550,16 +6005,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B42">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D42" s="20">
-        <v>857</v>
+        <v>-1838.85</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>31</v>
@@ -2567,16 +6022,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B43">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="20">
-        <v>728.44999999999993</v>
+        <v>34</v>
+      </c>
+      <c r="D43" s="21">
+        <v>-1599</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>31</v>
@@ -2584,16 +6039,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D44" s="20">
-        <v>-1688.95</v>
+        <v>-1344.75</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>31</v>
@@ -2601,16 +6056,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B45">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="21">
-        <v>-1987</v>
+      <c r="D45" s="20">
+        <v>-2061.9499999999998</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>31</v>
@@ -2618,16 +6073,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B46">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D46" s="20">
-        <v>-2285.0499999999997</v>
+        <v>-1793</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>31</v>
@@ -2641,10 +6096,10 @@
         <v>2040</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D47" s="20">
-        <v>403</v>
+        <v>-1490.25</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>31</v>
@@ -2652,16 +6107,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>2040</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D48" s="20">
-        <v>310</v>
+        <v>-2285.0499999999997</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>31</v>
@@ -2669,118 +6124,118 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>2040</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="20">
-        <v>217</v>
+        <v>34</v>
+      </c>
+      <c r="D49" s="21">
+        <v>-1987</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B50">
         <v>2045</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="20">
-        <v>2922.4</v>
+        <v>-1599.375</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
-        <v>69</v>
+      <c r="A51" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="B51">
         <v>2045</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="20">
-        <v>2248</v>
+        <v>-2452.375</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
-        <v>58</v>
+      <c r="A52" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="B52">
         <v>2045</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" s="20">
-        <v>1573.6</v>
+        <v>-2132.5</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B53">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D53" s="20">
-        <v>1076.4000000000001</v>
+        <v>-1708.5</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
-        <v>69</v>
+      <c r="A54" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D54" s="20">
-        <v>936</v>
+        <v>-2619.6999999999998</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>58</v>
+      <c r="A55" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="B55">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="23">
-        <v>795.59999999999991</v>
+        <v>34</v>
+      </c>
+      <c r="D55" s="30">
+        <v>-2278</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>31</v>
@@ -2788,16 +6243,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>2045</v>
+        <v>2025</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D56" s="24">
-        <v>-1812.625</v>
+        <v>304.2</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>31</v>
@@ -2805,16 +6260,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>2045</v>
+        <v>2025</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D57" s="24">
-        <v>-2132.5</v>
+        <v>163.79999999999998</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>31</v>
@@ -2822,16 +6277,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B58">
-        <v>2045</v>
+        <v>2025</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D58" s="24">
-        <v>-2452.375</v>
+        <v>234</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>31</v>
@@ -2842,13 +6297,13 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="24">
-        <v>440.05</v>
+        <v>341.90000000000003</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>31</v>
@@ -2856,16 +6311,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="24">
-        <v>338.5</v>
+        <v>184.1</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>31</v>
@@ -2873,16 +6328,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="C61" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D61" s="24">
-        <v>236.95</v>
+        <v>263</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>31</v>
@@ -2893,13 +6348,13 @@
         <v>59</v>
       </c>
       <c r="B62">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D62" s="24">
-        <v>3168.1</v>
+        <v>372.45000000000005</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>31</v>
@@ -2907,16 +6362,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B63">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D63" s="24">
-        <v>2437</v>
+        <v>200.55</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>31</v>
@@ -2924,16 +6379,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D64" s="24">
-        <v>1705.8999999999999</v>
+        <v>286.5</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>31</v>
@@ -2944,13 +6399,13 @@
         <v>59</v>
       </c>
       <c r="B65">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D65" s="24">
-        <v>1167.25</v>
+        <v>403</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>31</v>
@@ -2958,16 +6413,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B66">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D66" s="24">
-        <v>1015</v>
+        <v>217</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>31</v>
@@ -2975,16 +6430,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B67">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D67" s="24">
-        <v>862.75</v>
+        <v>310</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>31</v>
@@ -2992,16 +6447,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D68" s="24">
-        <v>-1936.3</v>
+        <v>440.05</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>31</v>
@@ -3009,16 +6464,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B69">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" s="30">
-        <v>-2278</v>
+        <v>52</v>
+      </c>
+      <c r="D69" s="24">
+        <v>236.95</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>31</v>
@@ -3026,16 +6481,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D70" s="24">
-        <v>-2619.6999999999998</v>
+        <v>338.5</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>31</v>
@@ -3060,7 +6515,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B72">
         <v>2050</v>
@@ -3069,7 +6524,7 @@
         <v>52</v>
       </c>
       <c r="D72" s="24">
-        <v>367</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>31</v>
@@ -3077,7 +6532,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>2050</v>
@@ -3086,7 +6541,7 @@
         <v>52</v>
       </c>
       <c r="D73" s="25">
-        <v>256.89999999999998</v>
+        <v>367</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>31</v>
@@ -3112,7 +6567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3480,15 +6935,131 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2462AE5-26EB-044C-9A39-EB702173087D}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="9">
+        <v>7657579.3700000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>2030</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5474361.1100000003</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>2035</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4602930.5549999997</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>2040</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3731500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>2045</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3382807.7649999997</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>2050</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3034115.53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3516,13 +7087,13 @@
         <v>59</v>
       </c>
       <c r="B2" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C2" s="2">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="D2" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3530,13 +7101,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C3" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D3" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3544,21 +7115,24 @@
         <v>58</v>
       </c>
       <c r="B4" s="2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C4" s="2">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="D4" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3566,15 +7140,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3635,10 +7209,165 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44322F28-6C1D-C04B-AC42-381A0329E9A6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="18">
+        <f>COUNT(Table2[period])</f>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="18">
+        <f>Table2[[#This Row],[period]]-ListPeriods!A2</f>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15">
+        <v>7901900</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="19">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3646,7 +7375,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3690,63 +7419,14 @@
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>0.95</v>
+        <f>1/1.05</f>
+        <v>0.95238095238095233</v>
       </c>
       <c r="B4" s="2">
         <v>0.2</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B31AA1-67DA-FB44-B876-228A6288195C}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -3758,33 +7438,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14845FA3-4890-FF4C-A979-B8D8998DFB99}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B31AA1-67DA-FB44-B876-228A6288195C}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>58</v>
+      <c r="A2">
+        <v>2025</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>69</v>
+      <c r="A3">
+        <v>2030</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>59</v>
+      <c r="A4">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
@@ -3796,33 +7491,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09142539-32F9-AB4A-AA6C-17DEA27A7340}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B13672-FC01-1744-AF2E-411812A2A98C}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3834,6 +7545,130 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14845FA3-4890-FF4C-A979-B8D8998DFB99}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09142539-32F9-AB4A-AA6C-17DEA27A7340}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCCAF23-80EA-2540-9E9D-BCB0DC43AE7B}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -3881,17 +7716,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3963,13 +7796,13 @@
         <v>250</v>
       </c>
       <c r="D2" s="3">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="E2" s="14">
         <v>40.700000000000003</v>
       </c>
       <c r="F2" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" s="14">
         <v>2.2599999999999998</v>
@@ -4004,13 +7837,13 @@
         <v>250</v>
       </c>
       <c r="D3" s="3">
-        <v>1000000</v>
+        <v>500</v>
       </c>
       <c r="E3" s="1">
         <v>1.38</v>
       </c>
       <c r="F3" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
         <v>0.01</v>
@@ -4045,13 +7878,13 @@
         <v>250</v>
       </c>
       <c r="D4" s="3">
-        <v>1000000</v>
+        <v>900</v>
       </c>
       <c r="E4" s="14">
         <v>7.4</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="14">
         <v>0.03</v>
@@ -4086,13 +7919,13 @@
         <v>250</v>
       </c>
       <c r="D5" s="3">
-        <v>1000000</v>
+        <v>400</v>
       </c>
       <c r="E5" s="14">
         <v>81.400000000000006</v>
       </c>
       <c r="F5" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" s="14">
         <v>2.2599999999999998</v>
@@ -4127,13 +7960,13 @@
         <v>500</v>
       </c>
       <c r="D6" s="3">
-        <v>1000000</v>
+        <v>900</v>
       </c>
       <c r="E6" s="14">
         <v>41.22</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6" s="14">
         <v>2.2599999999999998</v>
@@ -4174,7 +8007,7 @@
         <v>3.44</v>
       </c>
       <c r="F7" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="14">
         <v>0.03</v>
@@ -4209,13 +8042,13 @@
         <v>500</v>
       </c>
       <c r="D8" s="3">
-        <v>1000000</v>
+        <v>500</v>
       </c>
       <c r="E8" s="14">
         <v>22.58</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" s="14">
         <v>2.2599999999999998</v>
@@ -4250,13 +8083,13 @@
         <v>250</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="E9" s="14">
         <v>7.42</v>
       </c>
       <c r="F9" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" s="14">
         <v>0.02</v>
@@ -4291,13 +8124,13 @@
         <v>250</v>
       </c>
       <c r="D10" s="28">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E10" s="1">
         <v>7.42</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1">
         <v>0.03</v>
@@ -4332,13 +8165,13 @@
         <v>250</v>
       </c>
       <c r="D11" s="3">
-        <v>1000000</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1">
         <v>10.42</v>
       </c>
       <c r="F11" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
         <v>0.03</v>
@@ -4382,7 +8215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -4390,7 +8223,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4457,8 +8290,8 @@
       <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3">
-        <v>400</v>
+      <c r="B2" s="47">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C2" s="3">
         <v>1000</v>
@@ -4473,7 +8306,7 @@
         <v>0.95</v>
       </c>
       <c r="G2" s="2">
-        <v>0.02</v>
+        <v>1E-3</v>
       </c>
       <c r="H2" s="2">
         <v>0.25</v>
@@ -4519,434 +8352,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="10">
-        <v>0.34735402116783071</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA0959A-48B5-4E78-9ABA-7625B4241542}">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="12">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>2024</v>
-      </c>
-      <c r="B3" s="12">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>2025</v>
-      </c>
-      <c r="B4" s="12">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>2026</v>
-      </c>
-      <c r="B5" s="12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>2027</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1.84E-2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>2028</v>
-      </c>
-      <c r="B7" s="12">
-        <v>1.47E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>2029</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1.18E-2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>2030</v>
-      </c>
-      <c r="B9" s="12">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>2031</v>
-      </c>
-      <c r="B10" s="12">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>2032</v>
-      </c>
-      <c r="B11" s="12">
-        <v>5.3E-3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>2033</v>
-      </c>
-      <c r="B12" s="12">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>2034</v>
-      </c>
-      <c r="B13" s="12">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>2035</v>
-      </c>
-      <c r="B14" s="12">
-        <v>1.8E-3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>2036</v>
-      </c>
-      <c r="B15" s="12">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>2037</v>
-      </c>
-      <c r="B16" s="12">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>2038</v>
-      </c>
-      <c r="B17" s="12">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>2039</v>
-      </c>
-      <c r="B18" s="12">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>2040</v>
-      </c>
-      <c r="B19" s="12">
-        <v>1E-4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>2041</v>
-      </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>2042</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>2043</v>
-      </c>
-      <c r="B22" s="12">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>2044</v>
-      </c>
-      <c r="B23" s="12">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>2045</v>
-      </c>
-      <c r="B24" s="12">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <v>2046</v>
-      </c>
-      <c r="B25" s="12">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
-        <v>2047</v>
-      </c>
-      <c r="B26" s="12">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
-        <v>2048</v>
-      </c>
-      <c r="B27" s="12">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
-        <v>2049</v>
-      </c>
-      <c r="B28" s="12">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
-        <v>2050</v>
-      </c>
-      <c r="B29" s="12">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanhachez/Documents/ongoing - DHN_expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C61360E-1A9E-3C4A-BCFE-ABD30CD28828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541B9ECC-149D-414E-9575-3D267969635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="18" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="148">
   <si>
     <t>multiplier</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>retirement</t>
+  </si>
+  <si>
+    <t>avgT</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -830,14 +833,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -851,6 +847,22 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2121,10 +2133,10 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D16EDC38-DBCB-C642-BB89-7B6A02D83301}" name="Table17" displayName="Table17" ref="A1:D121" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
-  <autoFilter ref="A1:D121" xr:uid="{D16EDC38-DBCB-C642-BB89-7B6A02D83301}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D16EDC38-DBCB-C642-BB89-7B6A02D83301}" name="Table17" displayName="Table17" ref="A1:D181" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="A1:D181" xr:uid="{D16EDC38-DBCB-C642-BB89-7B6A02D83301}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D121">
-    <sortCondition ref="A1:A121"/>
+    <sortCondition ref="C1:C121"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{83E2A310-345F-4D48-88AB-6EB229FE61FB}" name="technology" dataDxfId="29"/>
@@ -2139,6 +2151,9 @@
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0E4498F7-5ACB-9242-9CBF-BF357AD529E3}" name="Table20" displayName="Table20" ref="A1:D18" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:D18" xr:uid="{0E4498F7-5ACB-9242-9CBF-BF357AD529E3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D18">
+    <sortCondition ref="A1:A18"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FA0AA9F4-F6FF-894A-BE11-953F947158F7}" name="technology" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{89CFC37E-CD5B-F74A-907A-0ABE3D42E617}" name="capacity" dataDxfId="22"/>
@@ -3286,10 +3301,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E523C0-40CD-474E-8EE1-DF88A4494E55}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3330,14 +3345,14 @@
       <c r="A3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="35">
         <v>0.9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="33">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3347,11 +3362,11 @@
       <c r="B4" s="35">
         <v>0.9</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="33">
-        <v>2030</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3361,11 +3376,11 @@
       <c r="B5" s="35">
         <v>0.9</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>84</v>
+      <c r="C5" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D5" s="33">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3375,11 +3390,11 @@
       <c r="B6" s="35">
         <v>0.9</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="39" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="33">
-        <v>2035</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3389,92 +3404,92 @@
       <c r="B7" s="35">
         <v>0.9</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>84</v>
+      <c r="C7" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="33">
-        <v>2035</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B8" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="C8" s="42" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="33">
-        <v>2040</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B9" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>84</v>
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D9" s="33">
-        <v>2040</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B10" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="C10" s="42" t="s">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="33">
-        <v>2045</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B11" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>84</v>
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D11" s="33">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>83</v>
       </c>
       <c r="D12" s="33">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D13" s="33">
         <v>2050</v>
@@ -3482,10 +3497,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.8</v>
+        <v>48</v>
+      </c>
+      <c r="B14" s="50">
+        <v>0.7</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>83</v>
@@ -3496,153 +3511,153 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="41">
-        <v>0.8</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="B15" s="50">
+        <v>0.7</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D15" s="33">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C16" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="50">
+        <v>0.7</v>
+      </c>
+      <c r="C16" s="39" t="s">
         <v>83</v>
       </c>
       <c r="D16" s="33">
-        <v>2030</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="B17" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D17" s="33">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="C18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>83</v>
       </c>
       <c r="D18" s="33">
-        <v>2035</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="B19" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D19" s="33">
-        <v>2035</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C20" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="46">
+        <v>2.9845833333333331</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="33">
-        <v>2040</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>84</v>
+        <v>53</v>
+      </c>
+      <c r="B21" s="46">
+        <v>2.9845833333333331</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>83</v>
       </c>
       <c r="D21" s="33">
-        <v>2040</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B22" s="35">
-        <v>0.8</v>
+        <v>2.9845833333333331</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="17">
-        <v>2045</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B23" s="35">
-        <v>0.8</v>
+        <v>2.9845833333333331</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="17">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B24" s="35">
-        <v>0.8</v>
+        <v>2.9845833333333331</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D24" s="17">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B25" s="35">
-        <v>0.8</v>
+        <v>2.9845833333333331</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="17">
         <v>2050</v>
@@ -3650,12 +3665,12 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="C26" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="37">
+        <v>0.98</v>
+      </c>
+      <c r="C26" s="40" t="s">
         <v>83</v>
       </c>
       <c r="D26" s="17">
@@ -3664,153 +3679,159 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>84</v>
+        <v>47</v>
+      </c>
+      <c r="B27" s="37">
+        <v>0.98</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="D27" s="17">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="17">
-        <v>0.7</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="37">
+        <v>0.98</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="17">
-        <v>2030</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="17">
-        <v>0.7</v>
+        <v>47</v>
+      </c>
+      <c r="B29" s="37">
+        <v>0.98</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="17">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="17">
-        <v>0.7</v>
+        <v>47</v>
+      </c>
+      <c r="B30" s="37">
+        <v>0.98</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D30" s="17">
-        <v>2035</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="17">
-        <v>0.7</v>
+        <v>47</v>
+      </c>
+      <c r="B31" s="37">
+        <v>0.98</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="17">
-        <v>2035</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="C32" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="42">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="17">
-        <v>2040</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="17">
-        <v>0.7</v>
+        <v>51</v>
+      </c>
+      <c r="B33" s="42">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="17">
-        <v>2040</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="17">
-        <v>0.7</v>
+        <v>51</v>
+      </c>
+      <c r="B34" s="42">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="17">
-        <v>2045</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="17">
-        <v>0.7</v>
+        <v>51</v>
+      </c>
+      <c r="B35" s="42">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="17">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="17">
-        <v>0.7</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="42">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="17">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="17">
-        <v>0.7</v>
+        <v>51</v>
+      </c>
+      <c r="B37" s="42">
+        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
+        <v>2.1067647058823527</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="17">
         <v>2050</v>
@@ -3818,12 +3839,12 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="35">
-        <v>2.9845833333333331</v>
-      </c>
-      <c r="C38" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="42">
+        <v>2.2384374999999999</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="17">
@@ -3832,153 +3853,153 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="34">
-        <v>4.2268749999999997</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+      <c r="B39" s="42">
+        <v>2.2384374999999999</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="D39" s="17">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="35">
-        <v>2.9845833333333331</v>
+        <v>45</v>
+      </c>
+      <c r="B40" s="42">
+        <v>2.2384374999999999</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="17">
-        <v>2030</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="34">
-        <v>4.2268749999999997</v>
+        <v>45</v>
+      </c>
+      <c r="B41" s="42">
+        <v>2.2384374999999999</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D41" s="17">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="35">
-        <v>2.9845833333333331</v>
+        <v>45</v>
+      </c>
+      <c r="B42" s="42">
+        <v>2.2384374999999999</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D42" s="17">
-        <v>2035</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="34">
-        <v>4.2268749999999997</v>
+        <v>45</v>
+      </c>
+      <c r="B43" s="42">
+        <v>2.2384374999999999</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="17">
-        <v>2035</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="35">
-        <v>2.9845833333333331</v>
-      </c>
-      <c r="C44" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="42">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>83</v>
       </c>
       <c r="D44" s="17">
-        <v>2040</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="34">
-        <v>4.2268749999999997</v>
+        <v>32</v>
+      </c>
+      <c r="B45" s="42">
+        <v>0.63560000000000005</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="17">
-        <v>2040</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="35">
-        <v>2.9845833333333331</v>
+        <v>32</v>
+      </c>
+      <c r="B46" s="42">
+        <v>0.58440000000000003</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D46" s="17">
-        <v>2045</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="34">
-        <v>4.2268749999999997</v>
+        <v>32</v>
+      </c>
+      <c r="B47" s="42">
+        <v>0.53320000000000001</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="17">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="35">
-        <v>2.9845833333333331</v>
+        <v>32</v>
+      </c>
+      <c r="B48" s="42">
+        <v>0.51544999999999996</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D48" s="17">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="34">
-        <v>4.2268749999999997</v>
+        <v>32</v>
+      </c>
+      <c r="B49" s="42">
+        <v>0.49769999999999998</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="17">
         <v>2050</v>
@@ -3986,12 +4007,12 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="38">
-        <v>0.98</v>
-      </c>
-      <c r="C50" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="42">
+        <v>2.4871527777777778</v>
+      </c>
+      <c r="C50" s="40" t="s">
         <v>83</v>
       </c>
       <c r="D50" s="17">
@@ -4000,153 +4021,153 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="38">
-        <v>0.98</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>84</v>
+        <v>50</v>
+      </c>
+      <c r="B51" s="42">
+        <v>2.4871527777777778</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="D51" s="17">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="38">
-        <v>0.98</v>
+        <v>50</v>
+      </c>
+      <c r="B52" s="42">
+        <v>2.4871527777777778</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="17">
-        <v>2030</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="38">
-        <v>0.98</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="42">
+        <v>2.4871527777777778</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53" s="17">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="38">
-        <v>0.98</v>
+        <v>50</v>
+      </c>
+      <c r="B54" s="42">
+        <v>2.4871527777777778</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D54" s="17">
-        <v>2035</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="38">
-        <v>0.98</v>
+        <v>50</v>
+      </c>
+      <c r="B55" s="42">
+        <v>2.4871527777777778</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="17">
-        <v>2035</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="38">
-        <v>0.98</v>
-      </c>
-      <c r="C56" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="C56" s="40" t="s">
         <v>83</v>
       </c>
       <c r="D56" s="17">
-        <v>2040</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="38">
-        <v>0.98</v>
+        <v>49</v>
+      </c>
+      <c r="B57" s="17">
+        <v>0.8</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="17">
-        <v>2040</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="38">
-        <v>0.98</v>
+        <v>49</v>
+      </c>
+      <c r="B58" s="17">
+        <v>0.8</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D58" s="17">
-        <v>2045</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="38">
-        <v>0.98</v>
+        <v>49</v>
+      </c>
+      <c r="B59" s="17">
+        <v>0.8</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="17">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="38">
-        <v>0.98</v>
+        <v>49</v>
+      </c>
+      <c r="B60" s="17">
+        <v>0.8</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D60" s="17">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="40">
-        <v>0.98</v>
+        <v>49</v>
+      </c>
+      <c r="B61" s="16">
+        <v>0.8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D61" s="17">
         <v>2050</v>
@@ -4154,14 +4175,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="10">
-        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
-        <v>2.1067647058823527</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>83</v>
+        <v>33</v>
+      </c>
+      <c r="B62" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="D62" s="17">
         <v>2025</v>
@@ -4169,498 +4189,493 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="34">
+        <v>4.2268749999999997</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="48">
+        <v>0.98</v>
+      </c>
+      <c r="C86" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="17">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" s="48">
+        <v>0.98</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="48">
+        <v>0.98</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="17">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="48">
+        <v>0.98</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="17">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="37">
+        <v>0.98</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="17">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="37">
+        <v>0.98</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B92" s="10">
         <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
         <v>2.6011538461538461</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C92" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D92" s="17">
         <v>2025</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="10">
-        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
-        <v>2.1067647058823527</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="17">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="10">
+      <c r="B93" s="10">
         <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
         <v>2.6011538461538461</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C93" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D93" s="17">
         <v>2030</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B66" s="10">
-        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
-        <v>2.1067647058823527</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="17">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="10">
+      <c r="B94" s="42">
         <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
         <v>2.6011538461538461</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C94" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D94" s="17">
         <v>2035</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="10">
-        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
-        <v>2.1067647058823527</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="17">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="10">
+      <c r="B95" s="42">
         <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
         <v>2.6011538461538461</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C95" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D95" s="17">
         <v>2040</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="10">
-        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
-        <v>2.1067647058823527</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="17">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="10">
+      <c r="B96" s="10">
         <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
         <v>2.6011538461538461</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C96" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D96" s="17">
         <v>2045</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="10">
-        <f>(0.5)*(80+273.15+5)/(80-5+10)</f>
-        <v>2.1067647058823527</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" s="17">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" s="10">
+      <c r="B97" s="10">
         <f>(0.5)*(60+273.15+5)/(60-5+10)</f>
         <v>2.6011538461538461</v>
       </c>
-      <c r="C73" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="17">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B74" s="45">
-        <v>2.2384374999999999</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="17">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" s="45">
-        <v>2.8179166666666666</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="17">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B76" s="45">
-        <v>2.2384374999999999</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="17">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="45">
-        <v>2.8179166666666666</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="17">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" s="45">
-        <v>2.2384374999999999</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" s="17">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" s="45">
-        <v>2.8179166666666666</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" s="17">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="45">
-        <v>2.2384374999999999</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="17">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="45">
-        <v>2.8179166666666666</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="17">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="45">
-        <v>2.2384374999999999</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="17">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="45">
-        <v>2.8179166666666666</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="17">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" s="45">
-        <v>2.2384374999999999</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="17">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="45">
-        <v>2.8179166666666666</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="17">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86" s="10">
-        <v>0.81120000000000003</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" s="17">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" s="10">
-        <v>0.81120000000000003</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="17">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" s="10">
-        <v>0.63560000000000005</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" s="17">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B89" s="10">
-        <v>0.63560000000000005</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="17">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" s="45">
-        <v>0.58440000000000003</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" s="17">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B91" s="45">
-        <v>0.58440000000000003</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="17">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="10">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" s="17">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B93" s="10">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D93" s="17">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B94" s="45">
-        <v>0.51544999999999996</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" s="17">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="45">
-        <v>0.51544999999999996</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" s="17">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B96" s="10">
-        <v>0.49769999999999998</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D96" s="17">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B97" s="10">
-        <v>0.49769999999999998</v>
-      </c>
       <c r="C97" s="17" t="s">
         <v>84</v>
       </c>
@@ -4670,13 +4685,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" s="10">
-        <v>2.4871527777777778</v>
-      </c>
-      <c r="C98" s="43" t="s">
-        <v>83</v>
+        <v>45</v>
+      </c>
+      <c r="B98" s="47">
+        <v>2.8179166666666666</v>
+      </c>
+      <c r="C98" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="D98" s="17">
         <v>2025</v>
@@ -4684,150 +4699,150 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B99" s="10">
-        <v>3.2514423076923076</v>
-      </c>
-      <c r="C99" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="47">
+        <v>2.8179166666666666</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D99" s="17">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B100" s="10">
-        <v>2.4871527777777778</v>
+        <v>45</v>
+      </c>
+      <c r="B100" s="47">
+        <v>2.8179166666666666</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D100" s="17">
-        <v>2030</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" s="10">
-        <v>3.2514423076923076</v>
+        <v>45</v>
+      </c>
+      <c r="B101" s="47">
+        <v>2.8179166666666666</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>84</v>
       </c>
       <c r="D101" s="17">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B102" s="10">
-        <v>2.4871527777777778</v>
+        <v>45</v>
+      </c>
+      <c r="B102" s="47">
+        <v>2.8179166666666666</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D102" s="17">
-        <v>2035</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103" s="10">
-        <v>3.2514423076923076</v>
+        <v>45</v>
+      </c>
+      <c r="B103" s="47">
+        <v>2.8179166666666666</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D103" s="17">
-        <v>2035</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B104" s="10">
-        <v>2.4871527777777778</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>83</v>
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="D104" s="17">
-        <v>2040</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B105" s="10">
-        <v>3.2514423076923076</v>
+        <v>0.63560000000000005</v>
       </c>
       <c r="C105" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D105" s="17">
-        <v>2040</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B106" s="10">
-        <v>2.4871527777777778</v>
+        <v>32</v>
+      </c>
+      <c r="B106" s="47">
+        <v>0.58440000000000003</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D106" s="17">
-        <v>2045</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B107" s="10">
-        <v>3.2514423076923076</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="C107" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D107" s="17">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B108" s="10">
-        <v>2.4871527777777778</v>
+        <v>32</v>
+      </c>
+      <c r="B108" s="47">
+        <v>0.51544999999999996</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D108" s="17">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B109" s="10">
-        <v>3.2514423076923076</v>
+        <v>0.49769999999999998</v>
       </c>
       <c r="C109" s="17" t="s">
         <v>84</v>
@@ -4838,13 +4853,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B110" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="C110" s="43" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="B110" s="42">
+        <v>3.2514423076923076</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="D110" s="17">
         <v>2025</v>
@@ -4852,72 +4867,72 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B111" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="C111" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" s="42">
+        <v>3.2514423076923076</v>
+      </c>
+      <c r="C111" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D111" s="17">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B112" s="17">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="B112" s="42">
+        <v>3.2514423076923076</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D112" s="17">
-        <v>2030</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B113" s="17">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="B113" s="42">
+        <v>3.2514423076923076</v>
       </c>
       <c r="C113" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D113" s="17">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" s="17">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="B114" s="42">
+        <v>3.2514423076923076</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D114" s="17">
-        <v>2035</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B115" s="17">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="B115" s="42">
+        <v>3.2514423076923076</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D115" s="17">
-        <v>2035</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4927,11 +4942,11 @@
       <c r="B116" s="17">
         <v>0.8</v>
       </c>
-      <c r="C116" s="17" t="s">
-        <v>83</v>
+      <c r="C116" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="D116" s="17">
-        <v>2040</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4945,7 +4960,7 @@
         <v>84</v>
       </c>
       <c r="D117" s="17">
-        <v>2040</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4956,10 +4971,10 @@
         <v>0.8</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D118" s="17">
-        <v>2045</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4973,7 +4988,7 @@
         <v>84</v>
       </c>
       <c r="D119" s="17">
-        <v>2045</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4984,10 +4999,10 @@
         <v>0.8</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D120" s="17">
-        <v>2050</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5001,6 +5016,846 @@
         <v>84</v>
       </c>
       <c r="D121" s="17">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="C122" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D122" s="51">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="C123" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D123" s="51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="C124" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D124" s="51">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="C125" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D125" s="51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="C126" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D126" s="51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="C127" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D127" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C128" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D128" s="51">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C129" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" s="51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C130" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" s="51">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C131" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D131" s="51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B132" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C132" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132" s="51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C133" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D133" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="C134" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" s="51">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="C135" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D135" s="51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="C136" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D136" s="51">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137" s="51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D138" s="51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="C139" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="52">
+        <v>3.6057291666666664</v>
+      </c>
+      <c r="C140" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D140" s="51">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" s="52">
+        <v>3.6057291666666664</v>
+      </c>
+      <c r="C141" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D141" s="51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="52">
+        <v>3.6057291666666664</v>
+      </c>
+      <c r="C142" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D142" s="51">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" s="52">
+        <v>3.6057291666666664</v>
+      </c>
+      <c r="C143" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D143" s="51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" s="52">
+        <v>3.6057291666666664</v>
+      </c>
+      <c r="C144" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="52">
+        <v>3.6057291666666664</v>
+      </c>
+      <c r="C145" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B146" s="52">
+        <v>0.98</v>
+      </c>
+      <c r="C146" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D146" s="51">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B147" s="52">
+        <v>0.98</v>
+      </c>
+      <c r="C147" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D147" s="51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B148" s="52">
+        <v>0.98</v>
+      </c>
+      <c r="C148" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D148" s="51">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B149" s="52">
+        <v>0.98</v>
+      </c>
+      <c r="C149" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D149" s="51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B150" s="52">
+        <v>0.98</v>
+      </c>
+      <c r="C150" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D150" s="51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B151" s="52">
+        <v>0.98</v>
+      </c>
+      <c r="C151" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D151" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B152" s="52">
+        <v>2.3539592760180996</v>
+      </c>
+      <c r="C152" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D152" s="51">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B153" s="52">
+        <v>2.3539592760180996</v>
+      </c>
+      <c r="C153" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D153" s="51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B154" s="52">
+        <v>2.3539592760180996</v>
+      </c>
+      <c r="C154" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D154" s="51">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B155" s="52">
+        <v>2.3539592760180996</v>
+      </c>
+      <c r="C155" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D155" s="51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" s="52">
+        <v>2.3539592760180996</v>
+      </c>
+      <c r="C156" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D156" s="51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157" s="52">
+        <v>2.3539592760180996</v>
+      </c>
+      <c r="C157" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D157" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B158" s="52">
+        <v>2.5281770833333335</v>
+      </c>
+      <c r="C158" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D158" s="51">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B159" s="52">
+        <v>2.5281770833333335</v>
+      </c>
+      <c r="C159" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D159" s="51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B160" s="52">
+        <v>2.5281770833333335</v>
+      </c>
+      <c r="C160" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D160" s="51">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" s="52">
+        <v>2.5281770833333335</v>
+      </c>
+      <c r="C161" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D161" s="51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" s="52">
+        <v>2.5281770833333335</v>
+      </c>
+      <c r="C162" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D162" s="51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B163" s="52">
+        <v>2.5281770833333335</v>
+      </c>
+      <c r="C163" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D163" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="52">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="C164" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D164" s="51">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="52">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="C165" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D165" s="51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="52">
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="C166" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D166" s="51">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="52">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="C167" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D167" s="51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="52">
+        <v>0.51544999999999996</v>
+      </c>
+      <c r="C168" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D168" s="51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="52">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="C169" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D169" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B170" s="52">
+        <v>2.8692975427350427</v>
+      </c>
+      <c r="C170" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D170" s="51">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" s="52">
+        <v>2.8692975427350427</v>
+      </c>
+      <c r="C171" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D171" s="51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B172" s="52">
+        <v>2.8692975427350427</v>
+      </c>
+      <c r="C172" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D172" s="51">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B173" s="52">
+        <v>2.8692975427350427</v>
+      </c>
+      <c r="C173" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D173" s="51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174" s="52">
+        <v>2.8692975427350427</v>
+      </c>
+      <c r="C174" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D174" s="51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B175" s="52">
+        <v>2.8692975427350427</v>
+      </c>
+      <c r="C175" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D175" s="51">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B176" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C176" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D176" s="51">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C177" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D177" s="51">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C178" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D178" s="51">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C179" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D179" s="51">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B180" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="C180" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D180" s="51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="C181" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D181" s="53">
         <v>2050</v>
       </c>
     </row>
@@ -5018,7 +5873,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5027,13 +5882,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>145</v>
       </c>
       <c r="D1" t="s">
@@ -5041,13 +5896,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="46">
-        <v>176.11</v>
-      </c>
-      <c r="C2" s="46">
+      <c r="A2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="43">
+        <v>840.94</v>
+      </c>
+      <c r="C2" s="43">
         <v>1</v>
       </c>
       <c r="D2">
@@ -5055,41 +5910,41 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="46">
-        <v>154</v>
-      </c>
-      <c r="C3" s="46">
-        <v>1</v>
+      <c r="A3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="43">
+        <v>805.2</v>
+      </c>
+      <c r="C3" s="43">
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>2025</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="46">
-        <v>72.989999999999995</v>
-      </c>
-      <c r="C4" s="46">
-        <v>1</v>
+      <c r="A4" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="43">
+        <v>56</v>
+      </c>
+      <c r="C4" s="43">
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2025</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="46">
-        <v>236.57</v>
-      </c>
-      <c r="C5" s="46">
+      <c r="A5" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="43">
+        <v>176.11</v>
+      </c>
+      <c r="C5" s="43">
         <v>1</v>
       </c>
       <c r="D5">
@@ -5097,27 +5952,27 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="43">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C6" s="43">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B7" s="43">
         <v>83</v>
       </c>
-      <c r="C6" s="46">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="46">
-        <v>840.94</v>
-      </c>
-      <c r="C7" s="46">
+      <c r="C7" s="43">
         <v>1</v>
       </c>
       <c r="D7">
@@ -5125,41 +5980,41 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="46">
-        <v>58.5</v>
-      </c>
-      <c r="C8" s="46">
+      <c r="A8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="43">
+        <v>102</v>
+      </c>
+      <c r="C8" s="43">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="43">
+        <v>236.57</v>
+      </c>
+      <c r="C9" s="43">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="46">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C9" s="46">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>2030</v>
-      </c>
-    </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="46">
-        <v>66</v>
-      </c>
-      <c r="C10" s="46">
+      <c r="A10" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="43">
+        <v>78</v>
+      </c>
+      <c r="C10" s="43">
         <v>2</v>
       </c>
       <c r="D10">
@@ -5167,27 +6022,27 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="46">
-        <v>216.6</v>
-      </c>
-      <c r="C11" s="46">
-        <v>2</v>
+      <c r="A11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="43">
+        <v>58.5</v>
+      </c>
+      <c r="C11" s="43">
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2030</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="46">
-        <v>78</v>
-      </c>
-      <c r="C12" s="46">
+      <c r="A12" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="43">
+        <v>218.6</v>
+      </c>
+      <c r="C12" s="43">
         <v>2</v>
       </c>
       <c r="D12">
@@ -5195,41 +6050,41 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="46">
-        <v>102</v>
-      </c>
-      <c r="C13" s="46">
-        <v>2</v>
+      <c r="A13" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="43">
+        <v>55.9</v>
+      </c>
+      <c r="C13" s="43">
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>2030</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="46">
-        <v>805.2</v>
-      </c>
-      <c r="C14" s="46">
-        <v>2</v>
+      <c r="A14" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="43">
+        <v>154</v>
+      </c>
+      <c r="C14" s="43">
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2030</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="46">
-        <v>218.6</v>
-      </c>
-      <c r="C15" s="46">
+      <c r="A15" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="43">
+        <v>66</v>
+      </c>
+      <c r="C15" s="43">
         <v>2</v>
       </c>
       <c r="D15">
@@ -5237,41 +6092,41 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="43">
+        <v>72.989999999999995</v>
+      </c>
+      <c r="C16" s="43">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="43">
+        <v>216.6</v>
+      </c>
+      <c r="C17" s="43">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="43">
         <v>227.7</v>
       </c>
-      <c r="C16" s="46">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="46">
-        <v>56</v>
-      </c>
-      <c r="C17" s="46">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="46">
-        <v>55.9</v>
-      </c>
-      <c r="C18" s="46">
+      <c r="C18" s="43">
         <v>5</v>
       </c>
       <c r="D18">
@@ -7058,7 +7913,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -7724,7 +8579,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7998,7 +8853,7 @@
         <v>76</v>
       </c>
       <c r="C7" s="3">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="D7" s="3">
         <v>1000000</v>
@@ -8290,7 +9145,7 @@
       <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="44">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="C2" s="3">

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="115_{34DC912F-EE65-44D9-9C9B-3B52B854FD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023C3E1A-02F7-4ADD-91D3-56A17B208543}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="115_{34DC912F-EE65-44D9-9C9B-3B52B854FD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C832D6-4F70-4BB5-8EAC-77EEFB19A4E5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="25490" yWindow="-1230" windowWidth="25820" windowHeight="13900" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
   <si>
     <t>parameter</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>demand_multiplier</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
 </sst>
 </file>
@@ -749,7 +752,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -774,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -785,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -847,10 +850,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916A681A-3E86-4F06-B784-91FE6167CDD3}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -858,7 +861,7 @@
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -868,8 +871,11 @@
       <c r="C1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -879,8 +885,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -889,6 +898,9 @@
       </c>
       <c r="C3">
         <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22286C85-1058-4683-BC8D-55516C17C647}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -946,9 +960,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4145D0F8-96F7-4B36-9ED7-5DAF3228EE46}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1229,7 +1248,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1402,7 +1421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221ABC6-770B-4F46-8362-7A6F0CE97577}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2024,9 +2045,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E078A6-3DE3-4FBD-B546-0DA5EF096AA6}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2428,15 +2455,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE8A0B0-FF39-49E0-ADEA-C8C600021327}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
@@ -2776,13 +2803,13 @@
         <v>66</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2790,13 +2817,13 @@
         <v>67</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2804,13 +2831,13 @@
         <v>68</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -2823,10 +2850,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanhachez/Documents/ongoing - DHN_expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541B9ECC-149D-414E-9575-3D267969635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD985E33-6DEC-3847-B90A-E26701D7D4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="18" r:id="rId1"/>
@@ -3303,7 +3303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E523C0-40CD-474E-8EE1-DF88A4494E55}">
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+    <sheetView topLeftCell="A147" workbookViewId="0">
       <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
@@ -8349,8 +8349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B13672-FC01-1744-AF2E-411812A2A98C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="115_{34DC912F-EE65-44D9-9C9B-3B52B854FD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8C832D6-4F70-4BB5-8EAC-77EEFB19A4E5}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="11_4793946D688F12D0F753310620297A3132595CB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCF1C899-01B6-4747-A846-150BBD65C624}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-1230" windowWidth="25820" windowHeight="13900" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="25490" yWindow="-1230" windowWidth="25820" windowHeight="13900" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -21,26 +21,53 @@
     <sheet name="Emission_Factor_for_electricity" sheetId="6" r:id="rId6"/>
     <sheet name="EnergyPriceMap" sheetId="7" r:id="rId7"/>
     <sheet name="EnergyTransitions" sheetId="8" r:id="rId8"/>
-    <sheet name="CarbonTrajectory" sheetId="10" r:id="rId9"/>
-    <sheet name="TemperatureScenarios" sheetId="11" r:id="rId10"/>
-    <sheet name="TemperatureProbabilities" sheetId="12" r:id="rId11"/>
-    <sheet name="ExistingCapacitySchedule" sheetId="13" r:id="rId12"/>
-    <sheet name="WasteChpEfficiency" sheetId="14" r:id="rId13"/>
-    <sheet name="WasteAvailability" sheetId="15" r:id="rId14"/>
-    <sheet name="ExtremeEvents" sheetId="16" r:id="rId15"/>
-    <sheet name="ExtremeEventControl" sheetId="17" r:id="rId16"/>
+    <sheet name="CarbonTrajectory" sheetId="9" r:id="rId9"/>
+    <sheet name="TemperatureScenarios" sheetId="10" r:id="rId10"/>
+    <sheet name="TemperatureProbabilities" sheetId="11" r:id="rId11"/>
+    <sheet name="ExistingCapacitySchedule" sheetId="12" r:id="rId12"/>
+    <sheet name="WasteChpEfficiency" sheetId="13" r:id="rId13"/>
+    <sheet name="WasteAvailability" sheetId="14" r:id="rId14"/>
+    <sheet name="ExtremeEvents" sheetId="15" r:id="rId15"/>
+    <sheet name="ExtremeEventControl" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={463AE1AF-51B7-4233-AAAB-621DF3E70CA1}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{463AE1AF-51B7-4233-AAAB-621DF3E70CA1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    SEK/tCO2
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t>parameter</t>
   </si>
@@ -84,6 +111,9 @@
     <t>elec_taxes_levies</t>
   </si>
   <si>
+    <t>n_typical_weeks</t>
+  </si>
+  <si>
     <t>technology</t>
   </si>
   <si>
@@ -114,9 +144,6 @@
     <t>lifetime_new</t>
   </si>
   <si>
-    <t>lifetime_initial</t>
-  </si>
-  <si>
     <t>Waste_CHP</t>
   </si>
   <si>
@@ -162,18 +189,6 @@
     <t>LowTempSources_HeatPump</t>
   </si>
   <si>
-    <t>year_1[MW]</t>
-  </si>
-  <si>
-    <t>year_2[MW]</t>
-  </si>
-  <si>
-    <t>year_3[MW]</t>
-  </si>
-  <si>
-    <t>year_4[MW]</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -261,43 +276,22 @@
     <t>to_low</t>
   </si>
   <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>cop_multiplier</t>
+  </si>
+  <si>
+    <t>High Temperature</t>
+  </si>
+  <si>
+    <t>Low Temperature</t>
+  </si>
+  <si>
     <t>probability</t>
   </si>
   <si>
-    <t>year_1[SEK/tCO2]</t>
-  </si>
-  <si>
-    <t>year_2[SEK/tCO2]</t>
-  </si>
-  <si>
-    <t>year_3[SEK/tCO2]</t>
-  </si>
-  <si>
-    <t>year_4[SEK/tCO2]</t>
-  </si>
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>cop_multiplier</t>
-  </si>
-  <si>
-    <t>High Temperature</t>
-  </si>
-  <si>
-    <t>Low Temperature</t>
-  </si>
-  <si>
-    <t>year_1</t>
-  </si>
-  <si>
-    <t>year_2</t>
-  </si>
-  <si>
-    <t>year_3</t>
-  </si>
-  <si>
-    <t>year_4</t>
+    <t>demand_multiplier</t>
   </si>
   <si>
     <t>elec_price_multiplier</t>
@@ -309,65 +303,59 @@
     <t>normal</t>
   </si>
   <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal - baseline conditions  </t>
+  </si>
+  <si>
     <t>demand_surge</t>
   </si>
   <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Climate stress - more severe winters (20% higher average demand)</t>
+  </si>
+  <si>
     <t>price_spike</t>
   </si>
   <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>Energy crisis  -  high electricity prices (2x average)</t>
+  </si>
+  <si>
     <t>dc_outage</t>
   </si>
   <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal - baseline conditions  </t>
-  </si>
-  <si>
-    <t>Climate stress - more severe winters (20% higher average demand)</t>
-  </si>
-  <si>
-    <t>Energy crisis  -  high electricity prices (2x average)</t>
-  </si>
-  <si>
     <t>Data center supply distruption  - complete unavailability</t>
   </si>
   <si>
     <t>enable_extreme_events</t>
   </si>
   <si>
+    <t>Master switch to enable/disable extreme event modeling</t>
+  </si>
+  <si>
     <t>apply_to_year</t>
   </si>
   <si>
-    <t>Master switch to enable/disable extreme event modeling</t>
-  </si>
-  <si>
     <t>Which model year to apply extreme events</t>
-  </si>
-  <si>
-    <t>demand_multiplier</t>
-  </si>
-  <si>
-    <t>0.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,8 +371,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +409,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -428,13 +440,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,6 +468,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kök, Ali" id="{C2436723-866E-4411-853D-B25A87398B35}" userId="S::ali.koek@tuwien.ac.at::cf6fa925-1299-4444-9ac8-ff6284848d57" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -747,18 +771,27 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2025-12-02T14:36:29.70" personId="{C2436723-866E-4411-853D-B25A87398B35}" id="{463AE1AF-51B7-4233-AAAB-621DF3E70CA1}">
+    <text xml:space="preserve">SEK/tCO2
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9590D77B-7759-431A-924A-4D4114C0C169}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -777,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -841,6 +874,14 @@
       </c>
       <c r="C8" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -849,38 +890,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916A681A-3E86-4F06-B784-91FE6167CDD3}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2030</v>
+      </c>
+      <c r="F1">
+        <v>2035</v>
+      </c>
+      <c r="G1">
+        <v>2040</v>
+      </c>
+      <c r="H1">
+        <v>2045</v>
+      </c>
+      <c r="I1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -888,19 +946,49 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1.04</v>
+      </c>
+      <c r="F2">
+        <v>1.06</v>
+      </c>
+      <c r="G2">
+        <v>1.08</v>
+      </c>
+      <c r="H2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>106</v>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <v>0.875</v>
+      </c>
+      <c r="G3">
+        <v>0.85</v>
+      </c>
+      <c r="H3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I3">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22286C85-1058-4683-BC8D-55516C17C647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -920,10 +1008,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>73</v>
@@ -934,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -945,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -957,11 +1045,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4145D0F8-96F7-4B36-9ED7-5DAF3228EE46}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -969,24 +1057,30 @@
     <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>2023</v>
+      </c>
+      <c r="C1">
+        <v>2030</v>
+      </c>
+      <c r="D1">
+        <v>2035</v>
+      </c>
+      <c r="E1">
+        <v>2040</v>
+      </c>
+      <c r="F1">
+        <v>2045</v>
+      </c>
+      <c r="G1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1002,16 +1096,22 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3">
-        <v>192.71</v>
+        <v>275</v>
       </c>
       <c r="C3">
-        <v>16.600000000000001</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1019,8 +1119,14 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1036,8 +1142,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1045,33 +1157,45 @@
         <v>220</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="B6">
-        <v>517.29</v>
+        <v>522</v>
       </c>
       <c r="C6">
-        <v>444.3</v>
+        <v>490</v>
       </c>
       <c r="D6">
-        <v>227.7</v>
+        <v>436</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+      <c r="F6">
+        <v>207</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1087,25 +1211,37 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8">
-        <v>314.57</v>
+        <v>320</v>
       </c>
       <c r="C8">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1113,46 +1249,64 @@
         <v>185</v>
       </c>
       <c r="C9">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10">
-        <v>1702.14</v>
+        <v>1714</v>
       </c>
       <c r="C10">
-        <v>861.2</v>
+        <v>1540</v>
       </c>
       <c r="D10">
-        <v>56</v>
+        <v>783</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C11">
-        <v>274.5</v>
+        <v>320</v>
       </c>
       <c r="D11">
-        <v>55.9</v>
+        <v>286</v>
       </c>
       <c r="E11">
+        <v>160</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
     </row>
@@ -1162,39 +1316,53 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF04874-5E52-4CAF-80BF-0F4F010E9C18}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>2023</v>
+      </c>
+      <c r="B1">
+        <v>2030</v>
+      </c>
+      <c r="C1">
+        <v>2035</v>
+      </c>
+      <c r="D1">
+        <v>2040</v>
+      </c>
+      <c r="E1">
+        <v>2045</v>
+      </c>
+      <c r="F1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.81120000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="B2">
-        <v>0.63560000000000005</v>
+        <v>0.71</v>
       </c>
       <c r="C2">
-        <v>0.53320000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="D2">
-        <v>0.49769999999999998</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.53</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1203,39 +1371,53 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA441E4D-3EA7-459F-85DE-ECA5E8A27D8A}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>7657579.3700000001</v>
-      </c>
-      <c r="B2">
-        <v>5474361.1100000003</v>
-      </c>
-      <c r="C2">
-        <v>3731500</v>
-      </c>
-      <c r="D2">
-        <v>3034115.53</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>2023</v>
+      </c>
+      <c r="B1">
+        <v>2030</v>
+      </c>
+      <c r="C1">
+        <v>2035</v>
+      </c>
+      <c r="D1">
+        <v>2040</v>
+      </c>
+      <c r="E1">
+        <v>2045</v>
+      </c>
+      <c r="F1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <v>8547.2222222222226</v>
+      </c>
+      <c r="B2" s="9">
+        <v>6524.4444444444443</v>
+      </c>
+      <c r="C2" s="9">
+        <v>5303.6111111111113</v>
+      </c>
+      <c r="D2" s="9">
+        <v>4429.7222222222217</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3637.5</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3034.1155256428815</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0160E0F-AD26-48ED-8931-1C59DFE62250}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
@@ -1263,30 +1445,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1298,18 +1480,18 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1318,15 +1500,15 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1338,15 +1520,15 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1358,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1367,11 +1549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4035866-F30E-4239-8029-E32D08CAEEBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1387,29 +1569,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1418,11 +1600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221ABC6-770B-4F46-8362-7A6F0CE97577}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1430,44 +1612,42 @@
     <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1498,11 +1678,8 @@
       <c r="J2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1533,11 +1710,8 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1568,11 +1742,8 @@
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1603,11 +1774,8 @@
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1638,11 +1806,8 @@
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1673,11 +1838,8 @@
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1708,11 +1870,8 @@
       <c r="J8">
         <v>3</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1743,11 +1902,8 @@
       <c r="J9">
         <v>2</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1778,11 +1934,8 @@
       <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1812,9 +1965,6 @@
       </c>
       <c r="J11">
         <v>2</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1823,33 +1973,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420D5219-3D62-48D2-B079-889AEB0D6350}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>2023</v>
+      </c>
+      <c r="C1">
+        <v>2030</v>
+      </c>
+      <c r="D1">
+        <v>2035</v>
+      </c>
+      <c r="E1">
+        <v>2040</v>
+      </c>
+      <c r="F1">
+        <v>2045</v>
+      </c>
+      <c r="G1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1865,8 +2024,14 @@
       <c r="E2">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1882,8 +2047,14 @@
       <c r="E3">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>400</v>
+      </c>
+      <c r="G3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1899,8 +2070,14 @@
       <c r="E4">
         <v>900</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>900</v>
+      </c>
+      <c r="G4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1916,8 +2093,14 @@
       <c r="E5">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1933,8 +2116,14 @@
       <c r="E6">
         <v>900</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>900</v>
+      </c>
+      <c r="G6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1950,8 +2139,14 @@
       <c r="E7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1967,8 +2162,14 @@
       <c r="E8">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1984,8 +2185,14 @@
       <c r="E9">
         <v>365</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>365</v>
+      </c>
+      <c r="G9">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2001,8 +2208,14 @@
       <c r="E10">
         <v>250</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>250</v>
+      </c>
+      <c r="G10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2018,10 +2231,16 @@
       <c r="E11">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>95</v>
+      </c>
+      <c r="G11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>-1</v>
@@ -2033,6 +2252,12 @@
         <v>2000</v>
       </c>
       <c r="E12">
+        <v>2000</v>
+      </c>
+      <c r="F12">
+        <v>2000</v>
+      </c>
+      <c r="G12">
         <v>2000</v>
       </c>
     </row>
@@ -2042,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E078A6-3DE3-4FBD-B546-0DA5EF096AA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2052,7 +2277,7 @@
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2065,7 +2290,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>400</v>
@@ -2073,7 +2298,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2081,7 +2306,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2089,7 +2314,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0.95</v>
@@ -2097,7 +2322,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0.02</v>
@@ -2105,7 +2330,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0.25</v>
@@ -2113,7 +2338,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0.25</v>
@@ -2121,7 +2346,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2129,7 +2354,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1000</v>
@@ -2137,7 +2362,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2149,7 +2374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C4674D-613B-47DC-95EC-A125610F3DBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2158,10 +2383,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2207,7 +2432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03C60C6-D733-44AF-9BC0-050CCF024BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2216,10 +2441,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -2452,11 +2677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE8A0B0-FF39-49E0-ADEA-C8C600021327}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2472,25 +2697,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2498,13 +2723,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1">
         <v>2023</v>
       </c>
       <c r="D2" s="1">
-        <v>-1260</v>
+        <v>-126</v>
       </c>
       <c r="E2" s="1">
         <v>2012.4</v>
@@ -2521,13 +2746,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4">
         <v>2023</v>
       </c>
       <c r="D3" s="4">
-        <v>-1260</v>
+        <v>-126</v>
       </c>
       <c r="E3" s="4">
         <v>1548</v>
@@ -2544,22 +2769,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
       </c>
       <c r="D4" s="1">
-        <v>-1260</v>
+        <v>-126</v>
       </c>
       <c r="E4" s="1">
         <v>1083.5999999999999</v>
       </c>
       <c r="F4" s="1">
-        <v>163.79999999999998</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>450.79999999999995</v>
+        <v>450.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -2567,19 +2792,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2">
         <v>2030</v>
       </c>
       <c r="D5" s="2">
-        <v>-1599</v>
+        <v>-160</v>
       </c>
       <c r="E5" s="2">
-        <v>2260.7000000000003</v>
+        <v>2260.6999999999998</v>
       </c>
       <c r="F5" s="2">
-        <v>341.90000000000003</v>
+        <v>341.9</v>
       </c>
       <c r="G5" s="2">
         <v>941.2</v>
@@ -2590,13 +2815,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4">
         <v>2030</v>
       </c>
       <c r="D6" s="4">
-        <v>-1599</v>
+        <v>-160</v>
       </c>
       <c r="E6" s="4">
         <v>1739</v>
@@ -2613,13 +2838,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2">
         <v>2030</v>
       </c>
       <c r="D7" s="2">
-        <v>-1599</v>
+        <v>-160</v>
       </c>
       <c r="E7" s="2">
         <v>1217.3</v>
@@ -2628,7 +2853,7 @@
         <v>184.1</v>
       </c>
       <c r="G7" s="2">
-        <v>506.79999999999995</v>
+        <v>506.8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2636,22 +2861,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="D8" s="3">
-        <v>-1987</v>
+        <v>-183</v>
       </c>
       <c r="E8" s="3">
-        <v>2676.7000000000003</v>
+        <f>E9*1.3</f>
+        <v>2462.2000000000003</v>
       </c>
       <c r="F8" s="3">
-        <v>403</v>
+        <f t="shared" ref="F8:G8" si="0">F9*1.3</f>
+        <v>369.2</v>
       </c>
       <c r="G8" s="3">
-        <v>1114.1000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1024.4000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2659,22 +2887,22 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="D9" s="4">
-        <v>-1987</v>
+        <v>-183</v>
       </c>
       <c r="E9" s="4">
-        <v>2059</v>
+        <v>1894</v>
       </c>
       <c r="F9" s="4">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="G9" s="4">
-        <v>857</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2682,45 +2910,48 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3">
+        <v>2035</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-183</v>
+      </c>
+      <c r="E10" s="3">
+        <f>E9*0.7</f>
+        <v>1325.8</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:G10" si="1">F9*0.7</f>
+        <v>198.79999999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>551.59999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="6">
         <v>2040</v>
       </c>
-      <c r="D10" s="3">
-        <v>-1987</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1441.3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>217</v>
-      </c>
-      <c r="G10" s="3">
-        <v>599.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11">
-        <v>2050</v>
-      </c>
-      <c r="D11">
-        <v>-2278</v>
-      </c>
-      <c r="E11">
-        <v>3168.1</v>
-      </c>
-      <c r="F11">
-        <v>477.1</v>
-      </c>
-      <c r="G11">
-        <v>1319.5</v>
+      <c r="D11" s="6">
+        <v>-199</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2676.7</v>
+      </c>
+      <c r="F11" s="6">
+        <v>403</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1114.0999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2728,44 +2959,188 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-199</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2059</v>
+      </c>
+      <c r="F12" s="4">
+        <v>310</v>
+      </c>
+      <c r="G12" s="4">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2040</v>
+      </c>
+      <c r="D13" s="6">
+        <v>-199</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1441.3</v>
+      </c>
+      <c r="F13" s="6">
+        <v>217</v>
+      </c>
+      <c r="G13" s="6">
+        <v>599.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2045</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-224</v>
+      </c>
+      <c r="E14" s="7">
+        <f>E15*1.3</f>
+        <v>2910.7000000000003</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" ref="F14:G14" si="2">F15*1.3</f>
+        <v>439.40000000000003</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>1211.6000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2045</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-224</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2239</v>
+      </c>
+      <c r="F15" s="4">
+        <v>338</v>
+      </c>
+      <c r="G15" s="4">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2045</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-224</v>
+      </c>
+      <c r="E16" s="7">
+        <f>E15*0.7</f>
+        <v>1567.3</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" ref="F16:G16" si="3">F15*0.7</f>
+        <v>236.6</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="3"/>
+        <v>652.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="8">
         <v>2050</v>
       </c>
-      <c r="D12" s="4">
-        <v>-2278</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D17" s="8">
+        <v>-228</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3168.1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>477.1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1319.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-228</v>
+      </c>
+      <c r="E18" s="4">
         <v>2437</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F18" s="4">
         <v>367</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G18" s="4">
         <v>1015</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13">
+      <c r="B19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="8">
         <v>2050</v>
       </c>
-      <c r="D13">
-        <v>-2278</v>
-      </c>
-      <c r="E13">
-        <v>1705.8999999999999</v>
-      </c>
-      <c r="F13">
+      <c r="D19" s="8">
+        <v>-228</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1705.9</v>
+      </c>
+      <c r="F19" s="8">
         <v>256.89999999999998</v>
       </c>
-      <c r="G13">
+      <c r="G19" s="8">
         <v>710.5</v>
       </c>
     </row>
@@ -2775,7 +3150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879CF66E-0559-4CA6-9CC7-E6C1E475771D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="156" zoomScaleNormal="250" workbookViewId="0">
@@ -2786,21 +3161,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2814,7 +3189,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -2828,7 +3203,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -2846,33 +3221,43 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51FC39B-AAD9-4476-8BBF-DA36EB745D6A}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>2023</v>
+      </c>
+      <c r="B1">
+        <v>2030</v>
+      </c>
+      <c r="C1">
+        <v>2035</v>
+      </c>
+      <c r="D1">
+        <v>2040</v>
+      </c>
+      <c r="E1">
+        <v>2045</v>
+      </c>
+      <c r="F1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1500</v>
       </c>
@@ -2880,13 +3265,22 @@
         <v>1900</v>
       </c>
       <c r="C2">
+        <f>AVERAGE(B2,D2)</f>
+        <v>2100</v>
+      </c>
+      <c r="D2">
         <v>2300</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <f>AVERAGE(D2,F2)</f>
+        <v>2515</v>
+      </c>
+      <c r="F2">
         <v>2730</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="11_4793946D688F12D0F753310620297A3132595CB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCF1C899-01B6-4747-A846-150BBD65C624}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="11_4793946D688F12D0F753310620297A3132595CB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5491ED-59E0-48CF-AD67-E8A03F008577}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-1230" windowWidth="25820" windowHeight="13900" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-1230" windowWidth="25820" windowHeight="13900" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,13 @@
     <sheet name="EnergyTransitions" sheetId="8" r:id="rId8"/>
     <sheet name="CarbonTrajectory" sheetId="9" r:id="rId9"/>
     <sheet name="TemperatureScenarios" sheetId="10" r:id="rId10"/>
-    <sheet name="TemperatureProbabilities" sheetId="11" r:id="rId11"/>
-    <sheet name="ExistingCapacitySchedule" sheetId="12" r:id="rId12"/>
-    <sheet name="WasteChpEfficiency" sheetId="13" r:id="rId13"/>
-    <sheet name="WasteAvailability" sheetId="14" r:id="rId14"/>
-    <sheet name="ExtremeEvents" sheetId="15" r:id="rId15"/>
-    <sheet name="ExtremeEventControl" sheetId="16" r:id="rId16"/>
+    <sheet name="HeatPumpCOP" sheetId="17" r:id="rId11"/>
+    <sheet name="TemperatureProbabilities" sheetId="11" r:id="rId12"/>
+    <sheet name="ExistingCapacitySchedule" sheetId="12" r:id="rId13"/>
+    <sheet name="WasteChpEfficiency" sheetId="13" r:id="rId14"/>
+    <sheet name="WasteAvailability" sheetId="14" r:id="rId15"/>
+    <sheet name="ExtremeEvents" sheetId="15" r:id="rId16"/>
+    <sheet name="ExtremeEventControl" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,8 +67,44 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4D02342A-FBE5-4DB6-9C04-00FA89B0D8C7}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4D02342A-FBE5-4DB6-9C04-00FA89B0D8C7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changes in the annual demand in the temp scenarios</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7703EBF0-E384-487A-8AB0-BC9525DE85E7}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7703EBF0-E384-487A-8AB0-BC9525DE85E7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changes in the COPs in the low temp scenario</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
   <si>
     <t>parameter</t>
   </si>
@@ -277,9 +314,6 @@
   </si>
   <si>
     <t>scenario</t>
-  </si>
-  <si>
-    <t>cop_multiplier</t>
   </si>
   <si>
     <t>High Temperature</t>
@@ -780,6 +814,22 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2025-12-04T09:50:54.03" personId="{C2436723-866E-4411-853D-B25A87398B35}" id="{4D02342A-FBE5-4DB6-9C04-00FA89B0D8C7}">
+    <text>Changes in the annual demand in the temp scenarios</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2025-12-04T09:50:08.69" personId="{C2436723-866E-4411-853D-B25A87398B35}" id="{7703EBF0-E384-487A-8AB0-BC9525DE85E7}">
+    <text>Changes in the COPs in the low temp scenario</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
@@ -890,113 +940,238 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
-        <v>70</v>
+      <c r="C1">
+        <v>2023</v>
       </c>
       <c r="D1">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="E1">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="F1">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="G1">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="H1">
-        <v>2045</v>
-      </c>
-      <c r="I1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="E2">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="F2">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="G2">
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I2">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
       <c r="F3">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="G3">
-        <v>0.85</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="H3">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="I3">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A2409B-616B-4929-9692-74AC98DC6CF7}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>2023</v>
+      </c>
+      <c r="C1">
+        <v>2030</v>
+      </c>
+      <c r="D1">
+        <v>2035</v>
+      </c>
+      <c r="E1">
+        <v>2040</v>
+      </c>
+      <c r="F1">
+        <v>2045</v>
+      </c>
+      <c r="G1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>6.2</v>
+      </c>
+      <c r="G2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>3.6</v>
+      </c>
+      <c r="C3">
+        <v>4.3</v>
+      </c>
+      <c r="D3">
+        <v>4.3</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5.5</v>
+      </c>
+      <c r="G3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>3.7</v>
+      </c>
+      <c r="C4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E4">
+        <v>4.8</v>
+      </c>
+      <c r="F4">
+        <v>5.3</v>
+      </c>
+      <c r="G4">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>3.6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G5">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1014,7 +1189,7 @@
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1022,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -1033,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -1044,7 +1219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -1315,7 +1490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1370,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1425,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1448,16 +1623,16 @@
         <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>56</v>
@@ -1465,10 +1640,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1480,18 +1655,18 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1500,15 +1675,15 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1520,15 +1695,15 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1540,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1574,24 +1749,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1603,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" activeCellId="3" sqref="A4 A9 A10 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3224,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="11_4793946D688F12D0F753310620297A3132595CB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5491ED-59E0-48CF-AD67-E8A03F008577}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="11_4793946D688F12D0F753310620297A3132595CB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C6C00F-AE67-491F-8A6B-A14C943D6930}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-1230" windowWidth="25820" windowHeight="13900" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>parameter</t>
   </si>
@@ -383,13 +383,70 @@
   </si>
   <si>
     <t>Which model year to apply extreme events</t>
+  </si>
+  <si>
+    <t>emission_factor</t>
+  </si>
+  <si>
+    <t>efficiency [-]</t>
+  </si>
+  <si>
+    <t>emission_factor [tCO2/MWh]</t>
+  </si>
+  <si>
+    <t>[-]</t>
+  </si>
+  <si>
+    <t>model years</t>
+  </si>
+  <si>
+    <t>SEK/MWh/year</t>
+  </si>
+  <si>
+    <t>[1/day]</t>
+  </si>
+  <si>
+    <t>model periods</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>carbon_price [SEK/tCO2]</t>
+  </si>
+  <si>
+    <t>availability [GWh/year]</t>
+  </si>
+  <si>
+    <t>technology [MW_th, MWh for storage]</t>
+  </si>
+  <si>
+    <t>technology [MW_th]</t>
+  </si>
+  <si>
+    <t>probability [-]</t>
+  </si>
+  <si>
+    <t>demand_multiplier [-]</t>
+  </si>
+  <si>
+    <t>elec_price_multiplier [-]</t>
+  </si>
+  <si>
+    <t>dc_availability [-]</t>
+  </si>
+  <si>
+    <t>technology (COP [-])</t>
+  </si>
+  <si>
+    <t>description (demand_multiplier [-])</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,12 +461,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -844,7 +895,7 @@
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -863,10 +914,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -877,15 +928,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -896,15 +950,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -915,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -926,12 +983,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
         <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -953,12 +1013,12 @@
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C1">
         <v>2023</v>
@@ -979,7 +1039,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1005,7 +1065,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1041,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A2409B-616B-4929-9692-74AC98DC6CF7}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1050,9 +1110,9 @@
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B1">
         <v>2023</v>
@@ -1073,7 +1133,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1096,7 +1156,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1119,7 +1179,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1142,7 +1202,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1181,7 +1241,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1192,7 +1252,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1203,7 +1263,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1232,9 +1292,9 @@
     <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B1">
         <v>2023</v>
@@ -1255,7 +1315,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1301,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1324,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1347,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1370,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1393,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1416,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1439,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1492,52 +1552,84 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.9140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:7" dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>2023</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>2030</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2035</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2040</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2045</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:7" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
         <v>0.9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.71</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.62</v>
       </c>
-      <c r="D2">
-        <v>0.56999999999999995</v>
-      </c>
       <c r="E2">
+        <v>0.57</v>
+      </c>
+      <c r="F2">
         <v>0.53</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>0.324</v>
+      </c>
+      <c r="C3">
+        <v>0.27</v>
+      </c>
+      <c r="D3">
+        <v>0.23</v>
+      </c>
+      <c r="E3">
+        <v>0.205</v>
+      </c>
+      <c r="F3">
+        <v>0.176</v>
+      </c>
+      <c r="G3">
+        <v>0.151</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1639,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1555,44 +1647,50 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:7" dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>2023</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>2030</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2035</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2040</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2045</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
-        <v>8547.2222222222226</v>
-      </c>
-      <c r="B2" s="9">
-        <v>6524.4444444444443</v>
-      </c>
-      <c r="C2" s="9">
-        <v>5303.6111111111113</v>
-      </c>
-      <c r="D2" s="9">
-        <v>4429.7222222222217</v>
-      </c>
-      <c r="E2" s="9">
+    <row r="2" spans="1:7" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2">
+        <v>8547.22</v>
+      </c>
+      <c r="C2">
+        <v>6524.44</v>
+      </c>
+      <c r="D2">
+        <v>5303.61</v>
+      </c>
+      <c r="E2">
+        <v>4429.72</v>
+      </c>
+      <c r="F2">
         <v>3637.5</v>
       </c>
-      <c r="F2" s="9">
-        <v>3034.1155256428815</v>
+      <c r="G2">
+        <v>3034.12</v>
       </c>
     </row>
   </sheetData>
@@ -1618,27 +1716,27 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" dyDescent="0.35">
+      <c r="A1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" dyDescent="0.35">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1658,7 +1756,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" dyDescent="0.35">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1678,7 +1776,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" dyDescent="0.35">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1698,7 +1796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" dyDescent="0.35">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -1736,7 +1834,7 @@
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1747,7 +1845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" dyDescent="0.35">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -1758,7 +1856,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1790,7 +1888,7 @@
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1822,7 +1920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1854,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1886,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1918,7 +2016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1950,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1982,7 +2080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2014,7 +2112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2046,7 +2144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2078,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2110,7 +2208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2160,9 +2258,9 @@
     <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="B1">
         <v>2023</v>
@@ -2183,7 +2281,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2206,7 +2304,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2229,7 +2327,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2252,7 +2350,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2275,7 +2373,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2298,7 +2396,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2321,7 +2419,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2344,7 +2442,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2367,7 +2465,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" dyDescent="0.35">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2390,7 +2488,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2413,7 +2511,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2443,7 +2541,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2455,92 +2553,125 @@
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
       <c r="B5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2552,11 +2683,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" dyDescent="0.35">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2564,7 +2697,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2572,7 +2705,7 @@
         <v>0.34735402116783071</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2580,12 +2713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2593,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2614,7 +2747,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -2622,7 +2755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" dyDescent="0.35">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -2630,7 +2763,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" dyDescent="0.35">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -2638,7 +2771,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" dyDescent="0.35">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -2646,7 +2779,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" dyDescent="0.35">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -2654,7 +2787,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" dyDescent="0.35">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -2662,7 +2795,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" dyDescent="0.35">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -2670,7 +2803,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" dyDescent="0.35">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -2678,7 +2811,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" dyDescent="0.35">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -2686,7 +2819,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" dyDescent="0.35">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -2694,7 +2827,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" dyDescent="0.35">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -2702,7 +2835,7 @@
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" dyDescent="0.35">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -2710,7 +2843,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" dyDescent="0.35">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -2718,7 +2851,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" dyDescent="0.35">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -2726,7 +2859,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" dyDescent="0.35">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -2734,7 +2867,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" dyDescent="0.35">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -2742,7 +2875,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" dyDescent="0.35">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -2750,7 +2883,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" dyDescent="0.35">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -2758,7 +2891,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" dyDescent="0.35">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -2766,7 +2899,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" dyDescent="0.35">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -2774,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" dyDescent="0.35">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -2782,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" dyDescent="0.35">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -2790,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" dyDescent="0.35">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -2798,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" dyDescent="0.35">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -2806,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" dyDescent="0.35">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -2814,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" dyDescent="0.35">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -2822,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" dyDescent="0.35">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -2830,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" dyDescent="0.35">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -2838,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" dyDescent="0.35">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -2870,7 +3003,7 @@
     <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" dyDescent="0.35">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -2893,11 +3026,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s" s="1">
         <v>62</v>
       </c>
       <c r="C2" s="1">
@@ -2916,11 +3049,11 @@
         <v>837.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s" s="4">
         <v>63</v>
       </c>
       <c r="C3" s="4">
@@ -2939,11 +3072,11 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s" s="1">
         <v>64</v>
       </c>
       <c r="C4" s="1">
@@ -2962,11 +3095,11 @@
         <v>450.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="2">
         <v>62</v>
       </c>
       <c r="C5" s="2">
@@ -2985,11 +3118,11 @@
         <v>941.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s" s="4">
         <v>63</v>
       </c>
       <c r="C6" s="4">
@@ -3008,11 +3141,11 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="2">
         <v>64</v>
       </c>
       <c r="C7" s="2">
@@ -3031,11 +3164,11 @@
         <v>506.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" dyDescent="0.35">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s" s="3">
         <v>62</v>
       </c>
       <c r="C8" s="3">
@@ -3049,7 +3182,7 @@
         <v>2462.2000000000003</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8:G8" si="0">F9*1.3</f>
+        <f t="shared" si="0" ref="F8:G8">F9*1.3</f>
         <v>369.2</v>
       </c>
       <c r="G8" s="3">
@@ -3057,11 +3190,11 @@
         <v>1024.4000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s" s="4">
         <v>63</v>
       </c>
       <c r="C9" s="4">
@@ -3080,11 +3213,11 @@
         <v>788</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" dyDescent="0.35">
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s" s="3">
         <v>64</v>
       </c>
       <c r="C10" s="3">
@@ -3098,7 +3231,7 @@
         <v>1325.8</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ref="F10:G10" si="1">F9*0.7</f>
+        <f t="shared" si="1" ref="F10:G10">F9*0.7</f>
         <v>198.79999999999998</v>
       </c>
       <c r="G10" s="3">
@@ -3106,11 +3239,11 @@
         <v>551.59999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" dyDescent="0.35">
       <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s" s="6">
         <v>62</v>
       </c>
       <c r="C11" s="6">
@@ -3129,11 +3262,11 @@
         <v>1114.0999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s" s="4">
         <v>63</v>
       </c>
       <c r="C12" s="4">
@@ -3152,11 +3285,11 @@
         <v>857</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" dyDescent="0.35">
       <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s" s="6">
         <v>64</v>
       </c>
       <c r="C13" s="6">
@@ -3175,11 +3308,11 @@
         <v>599.9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" dyDescent="0.35">
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s" s="7">
         <v>62</v>
       </c>
       <c r="C14" s="7">
@@ -3193,7 +3326,7 @@
         <v>2910.7000000000003</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" ref="F14:G14" si="2">F15*1.3</f>
+        <f t="shared" si="2" ref="F14:G14">F15*1.3</f>
         <v>439.40000000000003</v>
       </c>
       <c r="G14" s="7">
@@ -3201,11 +3334,11 @@
         <v>1211.6000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s" s="4">
         <v>63</v>
       </c>
       <c r="C15" s="4">
@@ -3224,11 +3357,11 @@
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" dyDescent="0.35">
       <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s" s="7">
         <v>64</v>
       </c>
       <c r="C16" s="7">
@@ -3242,7 +3375,7 @@
         <v>1567.3</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" ref="F16:G16" si="3">F15*0.7</f>
+        <f t="shared" si="3" ref="F16:G16">F15*0.7</f>
         <v>236.6</v>
       </c>
       <c r="G16" s="7">
@@ -3250,11 +3383,11 @@
         <v>652.4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" dyDescent="0.35">
       <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s" s="8">
         <v>62</v>
       </c>
       <c r="C17" s="8">
@@ -3273,11 +3406,11 @@
         <v>1319.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s" s="4">
         <v>63</v>
       </c>
       <c r="C18" s="4">
@@ -3296,11 +3429,11 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" dyDescent="0.35">
       <c r="A19" s="8">
         <v>3</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s" s="8">
         <v>64</v>
       </c>
       <c r="C19" s="8">
@@ -3334,22 +3467,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" dyDescent="0.35">
       <c r="A1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" dyDescent="0.35">
+      <c r="A2" t="s" s="5">
         <v>62</v>
       </c>
       <c r="B2">
@@ -3362,8 +3495,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" dyDescent="0.35">
+      <c r="A3" t="s" s="5">
         <v>63</v>
       </c>
       <c r="B3">
@@ -3376,8 +3509,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" dyDescent="0.35">
+      <c r="A4" t="s" s="5">
         <v>64</v>
       </c>
       <c r="B4">
@@ -3397,7 +3530,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -3412,46 +3545,50 @@
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:7" dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>2023</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>2030</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2035</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2040</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2045</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1500</v>
+    <row r="2" spans="1:7" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>102</v>
       </c>
       <c r="B2">
-        <v>1900</v>
+        <v>1330</v>
       </c>
       <c r="C2">
-        <f>AVERAGE(B2,D2)</f>
-        <v>2100</v>
+        <v>1581</v>
       </c>
       <c r="D2">
-        <v>2300</v>
+        <v>1789</v>
       </c>
       <c r="E2">
-        <f>AVERAGE(D2,F2)</f>
-        <v>2515</v>
+        <v>2024</v>
       </c>
       <c r="F2">
-        <v>2730</v>
+        <v>2290</v>
+      </c>
+      <c r="G2">
+        <v>2591</v>
       </c>
     </row>
   </sheetData>

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="11_4793946D688F12D0F753310620297A3132595CB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C6C00F-AE67-491F-8A6B-A14C943D6930}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="11_4793946D688F12D0F753310620297A3132595CB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E9A06F-D0FF-4CFE-98D9-C2F3CDE81F9A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="103">
   <si>
     <t>parameter</t>
   </si>
@@ -118,9 +118,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>representative model years</t>
-  </si>
-  <si>
     <t>T_years</t>
   </si>
   <si>
@@ -325,51 +322,27 @@
     <t>probability</t>
   </si>
   <si>
-    <t>demand_multiplier</t>
-  </si>
-  <si>
-    <t>elec_price_multiplier</t>
-  </si>
-  <si>
-    <t>dc_availability</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>0.94</t>
-  </si>
-  <si>
     <t xml:space="preserve">Normal - baseline conditions  </t>
   </si>
   <si>
     <t>demand_surge</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>Climate stress - more severe winters (20% higher average demand)</t>
   </si>
   <si>
     <t>price_spike</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
     <t>Energy crisis  -  high electricity prices (2x average)</t>
   </si>
   <si>
     <t>dc_outage</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>Data center supply distruption  - complete unavailability</t>
   </si>
   <si>
@@ -385,9 +358,6 @@
     <t>Which model year to apply extreme events</t>
   </si>
   <si>
-    <t>emission_factor</t>
-  </si>
-  <si>
     <t>efficiency [-]</t>
   </si>
   <si>
@@ -440,6 +410,9 @@
   </si>
   <si>
     <t>description (demand_multiplier [-])</t>
+  </si>
+  <si>
+    <t>waste_min_load_factor</t>
   </si>
 </sst>
 </file>
@@ -525,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -535,9 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -895,7 +865,7 @@
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -914,84 +884,95 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4">
         <v>0.04</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>7901900</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>10000</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
       </c>
       <c r="B8">
         <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1013,12 +994,12 @@
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C1">
         <v>2023</v>
@@ -1039,12 +1020,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:8" dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1065,12 +1046,12 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1110,9 +1091,9 @@
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B1">
         <v>2023</v>
@@ -1133,9 +1114,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1156,9 +1137,9 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>3.6</v>
@@ -1179,9 +1160,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>3.7</v>
@@ -1202,9 +1183,9 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>3.6</v>
@@ -1241,34 +1222,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -1292,9 +1273,9 @@
     <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B1">
         <v>2023</v>
@@ -1315,9 +1296,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1338,9 +1319,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>275</v>
@@ -1361,32 +1342,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>38</v>
       </c>
       <c r="B5">
         <v>220</v>
@@ -1407,9 +1388,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>522</v>
@@ -1430,9 +1411,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1453,9 +1434,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>320</v>
@@ -1476,9 +1457,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>185</v>
@@ -1499,9 +1480,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>1714</v>
@@ -1522,9 +1503,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>334</v>
@@ -1554,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1563,7 +1544,7 @@
     <col min="1" max="1" width="13.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1586,9 +1567,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -1600,7 +1581,7 @@
         <v>0.62</v>
       </c>
       <c r="E2">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F2">
         <v>0.53</v>
@@ -1609,12 +1590,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B3">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C3">
         <v>0.27</v>
@@ -1623,10 +1604,10 @@
         <v>0.23</v>
       </c>
       <c r="E3">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F3">
-        <v>0.176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="G3">
         <v>0.151</v>
@@ -1647,7 +1628,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1670,12 +1651,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B2">
-        <v>8547.22</v>
+        <v>8547.2199999999993</v>
       </c>
       <c r="C2">
         <v>6524.44</v>
@@ -1703,7 +1684,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1716,32 +1697,32 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>0.94</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1753,18 +1734,18 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>0.03</v>
+      </c>
+      <c r="C3">
+        <v>1.2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1773,15 +1754,15 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>0.02</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1793,15 +1774,15 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>0.01</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1813,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1815,7 @@
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1842,29 +1823,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1888,41 +1869,41 @@
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>25</v>
       </c>
       <c r="B2">
         <v>330</v>
@@ -1946,15 +1927,15 @@
         <v>0.26</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>430</v>
@@ -1978,15 +1959,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>320</v>
@@ -2010,15 +1991,15 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>185</v>
@@ -2042,15 +2023,15 @@
         <v>0.21</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>522</v>
@@ -2074,15 +2055,15 @@
         <v>0.27</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>1700</v>
@@ -2106,15 +2087,15 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>275</v>
@@ -2138,15 +2119,15 @@
         <v>0.5</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2170,15 +2151,15 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>220</v>
@@ -2202,15 +2183,15 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2234,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -2250,7 +2231,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2258,9 +2239,9 @@
     <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B1">
         <v>2023</v>
@@ -2281,9 +2262,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>-1</v>
@@ -2304,9 +2285,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>-1</v>
@@ -2327,9 +2308,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:7" dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>-1</v>
@@ -2350,9 +2331,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:7" dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>-1</v>
@@ -2373,9 +2354,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>-1</v>
@@ -2396,9 +2377,9 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:7" dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>-1</v>
@@ -2419,9 +2400,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>-1</v>
@@ -2442,9 +2423,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>-1</v>
@@ -2465,9 +2446,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:7" dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>-1</v>
@@ -2488,9 +2469,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:7" dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>-1</v>
@@ -2511,9 +2492,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>-1</v>
@@ -2553,7 +2534,7 @@
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2564,114 +2545,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>43</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>44</v>
       </c>
       <c r="B5">
         <v>0.95</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0.02</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0.25</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>1000</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2689,46 +2670,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0.34735402116783071</v>
       </c>
     </row>
-    <row r="3" spans="1:2" dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2747,15 +2728,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -2763,7 +2744,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -2771,7 +2752,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -2779,7 +2760,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -2787,7 +2768,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -2795,7 +2776,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -2803,7 +2784,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -2811,7 +2792,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -2819,7 +2800,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -2827,7 +2808,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -2835,7 +2816,7 @@
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -2843,7 +2824,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -2851,7 +2832,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -2859,7 +2840,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -2867,7 +2848,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -2875,7 +2856,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -2883,7 +2864,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -2891,7 +2872,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -2899,7 +2880,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -2907,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -2915,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -2923,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -2931,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -2939,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -2947,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -2955,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -2963,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -2971,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -3003,35 +2984,35 @@
     <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="1">
-        <v>62</v>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="1">
         <v>2023</v>
@@ -3049,12 +3030,12 @@
         <v>837.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="4">
-        <v>63</v>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="4">
         <v>2023</v>
@@ -3072,12 +3053,12 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:7" dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="1">
-        <v>64</v>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
@@ -3095,12 +3076,12 @@
         <v>450.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>62</v>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="2">
         <v>2030</v>
@@ -3118,12 +3099,12 @@
         <v>941.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" t="s" s="4">
-        <v>63</v>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="4">
         <v>2030</v>
@@ -3141,12 +3122,12 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:7" dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>64</v>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <v>2030</v>
@@ -3164,12 +3145,12 @@
         <v>506.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>62</v>
+      <c r="B8" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="3">
         <v>2035</v>
@@ -3182,7 +3163,7 @@
         <v>2462.2000000000003</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0" ref="F8:G8">F9*1.3</f>
+        <f t="shared" ref="F8:G8" si="0">F9*1.3</f>
         <v>369.2</v>
       </c>
       <c r="G8" s="3">
@@ -3190,12 +3171,12 @@
         <v>1024.4000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" t="s" s="4">
-        <v>63</v>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="4">
         <v>2035</v>
@@ -3213,12 +3194,12 @@
         <v>788</v>
       </c>
     </row>
-    <row r="10" spans="1:7" dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" t="s" s="3">
-        <v>64</v>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="3">
         <v>2035</v>
@@ -3231,7 +3212,7 @@
         <v>1325.8</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1" ref="F10:G10">F9*0.7</f>
+        <f t="shared" ref="F10:G10" si="1">F9*0.7</f>
         <v>198.79999999999998</v>
       </c>
       <c r="G10" s="3">
@@ -3239,12 +3220,12 @@
         <v>551.59999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:7" dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" t="s" s="6">
-        <v>62</v>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="6">
         <v>2040</v>
@@ -3262,12 +3243,12 @@
         <v>1114.0999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="4">
-        <v>63</v>
+      <c r="B12" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="4">
         <v>2040</v>
@@ -3285,12 +3266,12 @@
         <v>857</v>
       </c>
     </row>
-    <row r="13" spans="1:7" dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B13" t="s" s="6">
-        <v>64</v>
+      <c r="B13" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="6">
         <v>2040</v>
@@ -3308,12 +3289,12 @@
         <v>599.9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" t="s" s="7">
-        <v>62</v>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="7">
         <v>2045</v>
@@ -3326,7 +3307,7 @@
         <v>2910.7000000000003</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="2" ref="F14:G14">F15*1.3</f>
+        <f t="shared" ref="F14:G14" si="2">F15*1.3</f>
         <v>439.40000000000003</v>
       </c>
       <c r="G14" s="7">
@@ -3334,12 +3315,12 @@
         <v>1211.6000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" t="s" s="4">
-        <v>63</v>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="4">
         <v>2045</v>
@@ -3357,12 +3338,12 @@
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:7" dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" t="s" s="7">
-        <v>64</v>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="7">
         <v>2045</v>
@@ -3375,7 +3356,7 @@
         <v>1567.3</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="3" ref="F16:G16">F15*0.7</f>
+        <f t="shared" ref="F16:G16" si="3">F15*0.7</f>
         <v>236.6</v>
       </c>
       <c r="G16" s="7">
@@ -3383,12 +3364,12 @@
         <v>652.4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="B17" t="s" s="8">
-        <v>62</v>
+      <c r="B17" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C17" s="8">
         <v>2050</v>
@@ -3406,12 +3387,12 @@
         <v>1319.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" dyDescent="0.35" s="4" customFormat="1">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" t="s" s="4">
-        <v>63</v>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="4">
         <v>2050</v>
@@ -3429,12 +3410,12 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="19" spans="1:7" dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>3</v>
       </c>
-      <c r="B19" t="s" s="8">
-        <v>64</v>
+      <c r="B19" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="8">
         <v>2050</v>
@@ -3467,23 +3448,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s" s="5">
+      <c r="D1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" dyDescent="0.35">
-      <c r="A2" t="s" s="5">
-        <v>62</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -3495,9 +3476,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" dyDescent="0.35">
-      <c r="A3" t="s" s="5">
-        <v>63</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B3">
         <v>0.05</v>
@@ -3509,9 +3490,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4" dyDescent="0.35">
-      <c r="A4" t="s" s="5">
-        <v>64</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B4">
         <v>0.01</v>
@@ -3545,7 +3526,7 @@
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3568,9 +3549,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>1330</v>

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects2\AlisWorkspace\PhD\Capacity Expansion\DH-Capacity-Expansion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="11_4793946D688F12D0F753310620297A3132595CB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E9A06F-D0FF-4CFE-98D9-C2F3CDE81F9A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F5B8E-A822-4356-912B-D0218C65D5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,7 +856,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -925,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -947,7 +947,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1858,7 +1858,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" activeCellId="3" sqref="A4 A9 A10 A11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1973,7 +1973,7 @@
         <v>320</v>
       </c>
       <c r="C4">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="D4">
         <v>7.4</v>

--- a/data/model_parameters.xlsx
+++ b/data/model_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects2\AlisWorkspace\PhD\Capacity Expansion\DH-Capacity-Expansion\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/ali_koek_tuwien_ac_at/Documents/Desktop/PhD/Capacity Expansion/Code/DH-Capacity-Expansion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F5B8E-A822-4356-912B-D0218C65D5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1875" yWindow="1875" windowWidth="12525" windowHeight="6675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelConfig" sheetId="1" r:id="rId1"/>
@@ -855,17 +855,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -887,7 +887,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -898,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -909,7 +909,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -931,7 +931,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -942,7 +942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -953,7 +953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -964,7 +964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -988,13 +988,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1086,12 +1086,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1220,9 +1220,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1268,12 +1268,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1539,12 +1539,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.9375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1623,12 +1623,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1687,17 +1687,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.0625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.0625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -1810,12 +1810,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -1857,19 +1857,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.0625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2230,16 +2230,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="25.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2262,7 +2260,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2285,7 +2283,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2308,7 +2306,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2331,7 +2329,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2354,7 +2352,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2377,7 +2375,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2400,7 +2398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -2423,7 +2421,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2446,7 +2444,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2469,7 +2467,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2492,7 +2490,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -2525,16 +2523,16 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2556,7 +2554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2567,7 +2565,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2578,7 +2576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2589,7 +2587,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2600,7 +2598,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2611,7 +2609,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2622,7 +2620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2633,7 +2631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2644,7 +2642,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2668,9 +2666,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2678,7 +2676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2686,7 +2684,7 @@
         <v>0.34735402116783071</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2694,12 +2692,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2707,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2726,9 +2724,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2736,7 +2734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -2744,7 +2742,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -2752,7 +2750,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -2760,7 +2758,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -2768,7 +2766,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -2776,7 +2774,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -2784,7 +2782,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -2792,7 +2790,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -2800,7 +2798,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -2808,7 +2806,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -2816,7 +2814,7 @@
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -2824,7 +2822,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -2832,7 +2830,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -2840,7 +2838,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -2848,7 +2846,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -2856,7 +2854,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -2864,7 +2862,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -2872,7 +2870,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -2880,7 +2878,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -2888,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -2896,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -2904,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -2912,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -2920,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -2928,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -2936,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -2944,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -2952,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -2973,18 +2971,18 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.8125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3125" customWidth="1"/>
+    <col min="4" max="4" width="15.0625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -3007,7 +3005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3030,7 +3028,7 @@
         <v>837.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3053,7 +3051,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3076,7 +3074,7 @@
         <v>450.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -3099,7 +3097,7 @@
         <v>941.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -3122,7 +3120,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -3145,7 +3143,7 @@
         <v>506.8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -3171,7 +3169,7 @@
         <v>1024.4000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3194,7 +3192,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -3220,7 +3218,7 @@
         <v>551.59999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -3243,7 +3241,7 @@
         <v>1114.0999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -3266,7 +3264,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -3289,7 +3287,7 @@
         <v>599.9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -3315,7 +3313,7 @@
         <v>1211.6000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>3</v>
       </c>
@@ -3364,7 +3362,7 @@
         <v>652.4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -3387,7 +3385,7 @@
         <v>1319.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="8">
         <v>3</v>
       </c>
@@ -3446,9 +3444,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -3462,7 +3460,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
@@ -3476,7 +3474,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
@@ -3490,7 +3488,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
@@ -3517,16 +3515,16 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.1875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3125" customWidth="1"/>
+    <col min="4" max="4" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3125" customWidth="1"/>
+    <col min="6" max="6" width="15.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3547,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>92</v>
       </c>
